--- a/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,25 +629,25 @@
         <v>0.9998183796172059</v>
       </c>
       <c r="D3">
-        <v>1.000726487131317</v>
+        <v>0.9995156754587047</v>
       </c>
       <c r="E3">
-        <v>0.9998183796172059</v>
+        <v>1.000399569183432</v>
       </c>
       <c r="F3">
         <v>0.9998183796172059</v>
       </c>
       <c r="G3">
-        <v>0.9995156754587047</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="H3">
-        <v>1.000399569183432</v>
+        <v>1.000726487131317</v>
       </c>
       <c r="I3">
+        <v>1.000726487131317</v>
+      </c>
+      <c r="J3">
         <v>0.9998183796172059</v>
-      </c>
-      <c r="J3">
-        <v>1.000726487131317</v>
       </c>
       <c r="K3">
         <v>0.9998183796172059</v>
@@ -788,7 +680,7 @@
         <v>1.000016145104178</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>0.999649383481052</v>
       </c>
       <c r="D4">
-        <v>1.001402477333158</v>
+        <v>0.9990650158641842</v>
       </c>
       <c r="E4">
-        <v>0.999649383481052</v>
+        <v>1.000771364170159</v>
       </c>
       <c r="F4">
         <v>0.999649383481052</v>
       </c>
       <c r="G4">
-        <v>0.9990650158641842</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="H4">
-        <v>1.000771364170159</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="I4">
+        <v>1.001402477333158</v>
+      </c>
+      <c r="J4">
         <v>0.999649383481052</v>
-      </c>
-      <c r="J4">
-        <v>1.001402477333158</v>
       </c>
       <c r="K4">
         <v>0.999649383481052</v>
@@ -850,7 +742,7 @@
         <v>1.000031167968443</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>0.9993280817078166</v>
       </c>
       <c r="D5">
-        <v>1.002687675700755</v>
+        <v>0.9982082151850027</v>
       </c>
       <c r="E5">
-        <v>0.9993280817078166</v>
+        <v>1.001478221246088</v>
       </c>
       <c r="F5">
         <v>0.9993280817078166</v>
       </c>
       <c r="G5">
-        <v>0.9982082151850027</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="H5">
-        <v>1.001478221246088</v>
+        <v>1.002687675700755</v>
       </c>
       <c r="I5">
+        <v>1.002687675700755</v>
+      </c>
+      <c r="J5">
         <v>0.9993280817078166</v>
-      </c>
-      <c r="J5">
-        <v>1.002687675700755</v>
       </c>
       <c r="K5">
         <v>0.9993280817078166</v>
@@ -912,7 +804,7 @@
         <v>1.000059726209216</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,25 +815,25 @@
         <v>0.9990145155476003</v>
       </c>
       <c r="D6">
-        <v>1.003941962018959</v>
+        <v>0.9973720334362303</v>
       </c>
       <c r="E6">
-        <v>0.9990145155476003</v>
+        <v>1.002168091180698</v>
       </c>
       <c r="F6">
         <v>0.9990145155476003</v>
       </c>
       <c r="G6">
-        <v>0.9973720334362303</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="H6">
-        <v>1.002168091180698</v>
+        <v>1.003941962018959</v>
       </c>
       <c r="I6">
+        <v>1.003941962018959</v>
+      </c>
+      <c r="J6">
         <v>0.9990145155476003</v>
-      </c>
-      <c r="J6">
-        <v>1.003941962018959</v>
       </c>
       <c r="K6">
         <v>0.9990145155476003</v>
@@ -974,7 +866,7 @@
         <v>1.000087605546448</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>0.9999883115824775</v>
       </c>
       <c r="D7">
-        <v>1.000046759484484</v>
+        <v>0.9999688272042994</v>
       </c>
       <c r="E7">
-        <v>0.9999883115824775</v>
+        <v>1.000025718326684</v>
       </c>
       <c r="F7">
         <v>0.9999883115824775</v>
       </c>
       <c r="G7">
-        <v>0.9999688272042995</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="H7">
-        <v>1.000025718326684</v>
+        <v>1.000046759484484</v>
       </c>
       <c r="I7">
+        <v>1.000046759484484</v>
+      </c>
+      <c r="J7">
         <v>0.9999883115824775</v>
-      </c>
-      <c r="J7">
-        <v>1.000046759484484</v>
       </c>
       <c r="K7">
         <v>0.9999883115824775</v>
@@ -1036,7 +928,7 @@
         <v>1.000001039960483</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,25 +939,25 @@
         <v>0.9999737380156635</v>
       </c>
       <c r="D8">
-        <v>1.000105053431771</v>
+        <v>0.9999299644195915</v>
       </c>
       <c r="E8">
-        <v>0.9999737380156635</v>
+        <v>1.000057780386239</v>
       </c>
       <c r="F8">
         <v>0.9999737380156635</v>
       </c>
       <c r="G8">
-        <v>0.9999299644195915</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="H8">
-        <v>1.000057780386239</v>
+        <v>1.000105053431771</v>
       </c>
       <c r="I8">
+        <v>1.000105053431771</v>
+      </c>
+      <c r="J8">
         <v>0.9999737380156635</v>
-      </c>
-      <c r="J8">
-        <v>1.000105053431771</v>
       </c>
       <c r="K8">
         <v>0.9999737380156635</v>
@@ -1098,7 +990,7 @@
         <v>1.000002335380765</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>0.9999651121393142</v>
       </c>
       <c r="D9">
-        <v>1.000139556484474</v>
+        <v>0.9999069630591341</v>
       </c>
       <c r="E9">
-        <v>0.9999651121393142</v>
+        <v>1.000076756757639</v>
       </c>
       <c r="F9">
         <v>0.9999651121393142</v>
       </c>
       <c r="G9">
-        <v>0.9999069630591341</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="H9">
-        <v>1.000076756757639</v>
+        <v>1.000139556484474</v>
       </c>
       <c r="I9">
+        <v>1.000139556484474</v>
+      </c>
+      <c r="J9">
         <v>0.9999651121393142</v>
-      </c>
-      <c r="J9">
-        <v>1.000139556484474</v>
       </c>
       <c r="K9">
         <v>0.9999651121393142</v>
@@ -1160,7 +1052,7 @@
         <v>1.000003102119865</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,25 +1063,25 @@
         <v>0.9999228497551976</v>
       </c>
       <c r="D10">
-        <v>1.00030860799081</v>
+        <v>0.9997942622808349</v>
       </c>
       <c r="E10">
-        <v>0.9999228497551976</v>
+        <v>1.000169734565714</v>
       </c>
       <c r="F10">
         <v>0.9999228497551976</v>
       </c>
       <c r="G10">
-        <v>0.999794262280835</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="H10">
-        <v>1.000169734565714</v>
+        <v>1.00030860799081</v>
       </c>
       <c r="I10">
+        <v>1.00030860799081</v>
+      </c>
+      <c r="J10">
         <v>0.9999228497551976</v>
-      </c>
-      <c r="J10">
-        <v>1.00030860799081</v>
       </c>
       <c r="K10">
         <v>0.9999228497551976</v>
@@ -1222,7 +1114,7 @@
         <v>1.000006859017158</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>0.9998780954195547</v>
       </c>
       <c r="D11">
-        <v>1.000487630446495</v>
+        <v>0.9996749116274629</v>
       </c>
       <c r="E11">
-        <v>0.9998780954195547</v>
+        <v>1.000268198692632</v>
       </c>
       <c r="F11">
         <v>0.9998780954195547</v>
       </c>
       <c r="G11">
-        <v>0.9996749116274629</v>
+        <v>0.9998780954195547</v>
       </c>
       <c r="H11">
-        <v>1.000268198692632</v>
+        <v>1.000487630446495</v>
       </c>
       <c r="I11">
+        <v>1.000487630446495</v>
+      </c>
+      <c r="J11">
         <v>0.9998780954195547</v>
-      </c>
-      <c r="J11">
-        <v>1.000487630446495</v>
       </c>
       <c r="K11">
         <v>0.9998780954195547</v>
@@ -1284,7 +1176,7 @@
         <v>1.000010837837543</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,25 +1187,25 @@
         <v>1.000625009638419</v>
       </c>
       <c r="D12">
-        <v>0.997499986532845</v>
+        <v>1.001666685447854</v>
       </c>
       <c r="E12">
-        <v>1.000625009638419</v>
+        <v>0.9986249893097934</v>
       </c>
       <c r="F12">
         <v>1.000625009638419</v>
       </c>
       <c r="G12">
-        <v>1.001666685447854</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="H12">
-        <v>0.9986249893097934</v>
+        <v>0.9974999865328452</v>
       </c>
       <c r="I12">
+        <v>0.9974999865328452</v>
+      </c>
+      <c r="J12">
         <v>1.000625009638419</v>
-      </c>
-      <c r="J12">
-        <v>0.997499986532845</v>
       </c>
       <c r="K12">
         <v>1.000625009638419</v>
@@ -1337,16 +1229,16 @@
         <v>0.9995833352698943</v>
       </c>
       <c r="R12">
-        <v>0.9998437538620255</v>
+        <v>0.9998437538620254</v>
       </c>
       <c r="S12">
-        <v>0.9998437538620255</v>
+        <v>0.9998437538620254</v>
       </c>
       <c r="T12">
         <v>0.999944448367625</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,25 +1249,25 @@
         <v>1.000159433330617</v>
       </c>
       <c r="D13">
-        <v>0.9993622592357381</v>
+        <v>1.000425165769706</v>
       </c>
       <c r="E13">
-        <v>1.000159433330617</v>
+        <v>0.9996492393434698</v>
       </c>
       <c r="F13">
         <v>1.000159433330617</v>
       </c>
       <c r="G13">
-        <v>1.000425165769706</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="H13">
-        <v>0.9996492393434699</v>
+        <v>0.9993622592357381</v>
       </c>
       <c r="I13">
+        <v>0.9993622592357381</v>
+      </c>
+      <c r="J13">
         <v>1.000159433330617</v>
-      </c>
-      <c r="J13">
-        <v>0.9993622592357381</v>
       </c>
       <c r="K13">
         <v>1.000159433330617</v>
@@ -1408,7 +1300,7 @@
         <v>0.9999858273901273</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,25 +1311,25 @@
         <v>1.000964278013256</v>
       </c>
       <c r="D14">
-        <v>0.9961428767317848</v>
+        <v>1.002571405892419</v>
       </c>
       <c r="E14">
-        <v>1.000964278013256</v>
+        <v>0.9978785790376954</v>
       </c>
       <c r="F14">
         <v>1.000964278013256</v>
       </c>
       <c r="G14">
-        <v>1.002571405892419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="H14">
-        <v>0.9978785790376954</v>
+        <v>0.9961428767317848</v>
       </c>
       <c r="I14">
+        <v>0.9961428767317848</v>
+      </c>
+      <c r="J14">
         <v>1.000964278013256</v>
-      </c>
-      <c r="J14">
-        <v>0.9961428767317848</v>
       </c>
       <c r="K14">
         <v>1.000964278013256</v>
@@ -1470,7 +1362,7 @@
         <v>0.9999142826169446</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,25 +1373,25 @@
         <v>1.000238545245429</v>
       </c>
       <c r="D15">
-        <v>0.999045823055188</v>
+        <v>1.000636117456318</v>
       </c>
       <c r="E15">
-        <v>1.000238545245429</v>
+        <v>0.9994752027209357</v>
       </c>
       <c r="F15">
         <v>1.000238545245429</v>
       </c>
       <c r="G15">
-        <v>1.000636117456318</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="H15">
-        <v>0.9994752027209357</v>
+        <v>0.999045823055188</v>
       </c>
       <c r="I15">
+        <v>0.999045823055188</v>
+      </c>
+      <c r="J15">
         <v>1.000238545245429</v>
-      </c>
-      <c r="J15">
-        <v>0.999045823055188</v>
       </c>
       <c r="K15">
         <v>1.000238545245429</v>
@@ -1532,7 +1424,7 @@
         <v>0.9999787964947883</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999999251937731</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="D16">
-        <v>1.000002998330656</v>
+        <v>0.990555337441581</v>
       </c>
       <c r="E16">
-        <v>0.999999251937731</v>
+        <v>1.007791854425747</v>
       </c>
       <c r="F16">
-        <v>0.999999251937731</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="G16">
-        <v>0.9999980013179504</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="H16">
-        <v>1.000001649774266</v>
+        <v>1.014167000076239</v>
       </c>
       <c r="I16">
-        <v>0.999999251937731</v>
+        <v>1.014167000076239</v>
       </c>
       <c r="J16">
-        <v>1.000002998330656</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="K16">
-        <v>0.999999251937731</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="L16">
-        <v>0.999999251937731</v>
+        <v>0.9964582517432278</v>
       </c>
       <c r="M16">
-        <v>1.000001125134193</v>
+        <v>1.005312625909734</v>
       </c>
       <c r="N16">
-        <v>1.000001125134193</v>
+        <v>1.005312625909734</v>
       </c>
       <c r="O16">
-        <v>1.000001300014217</v>
+        <v>1.006139035415072</v>
       </c>
       <c r="P16">
-        <v>1.000000500735372</v>
+        <v>1.002361167854232</v>
       </c>
       <c r="Q16">
-        <v>1.000000500735372</v>
+        <v>1.002361167854232</v>
       </c>
       <c r="R16">
-        <v>1.000000188535962</v>
+        <v>1.000885438826481</v>
       </c>
       <c r="S16">
-        <v>1.000000188535962</v>
+        <v>1.000885438826481</v>
       </c>
       <c r="T16">
-        <v>1.000000067539344</v>
+        <v>1.000314824528875</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999841186432005</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="D17">
-        <v>1.000063530678476</v>
+        <v>0.9922783291960994</v>
       </c>
       <c r="E17">
-        <v>0.9999841186432005</v>
+        <v>1.006370384156126</v>
       </c>
       <c r="F17">
-        <v>0.9999841186432005</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="G17">
-        <v>0.9999576461324728</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="H17">
-        <v>1.000034943301783</v>
+        <v>1.011582510645794</v>
       </c>
       <c r="I17">
-        <v>0.9999841186432005</v>
+        <v>1.011582510645794</v>
       </c>
       <c r="J17">
-        <v>1.000063530678476</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="K17">
-        <v>0.9999841186432005</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="L17">
-        <v>0.9999841186432005</v>
+        <v>0.9971043739903233</v>
       </c>
       <c r="M17">
-        <v>1.000023824660838</v>
+        <v>1.004343442318059</v>
       </c>
       <c r="N17">
-        <v>1.000023824660838</v>
+        <v>1.004343442318059</v>
       </c>
       <c r="O17">
-        <v>1.000027530874487</v>
+        <v>1.005019089597414</v>
       </c>
       <c r="P17">
-        <v>1.000010589321626</v>
+        <v>1.001930419542147</v>
       </c>
       <c r="Q17">
-        <v>1.000010589321626</v>
+        <v>1.001930419542147</v>
       </c>
       <c r="R17">
-        <v>1.000003971652019</v>
+        <v>1.000723908154191</v>
       </c>
       <c r="S17">
-        <v>1.000003971652019</v>
+        <v>1.000723908154191</v>
       </c>
       <c r="T17">
-        <v>1.000001412673722</v>
+        <v>1.000257390994831</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999440803137206</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="D18">
-        <v>1.000223678283378</v>
+        <v>0.9957558743345589</v>
       </c>
       <c r="E18">
-        <v>0.9999440803137206</v>
+        <v>1.003501406752651</v>
       </c>
       <c r="F18">
-        <v>0.9999440803137206</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="G18">
-        <v>0.9998508791399758</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="H18">
-        <v>1.000123024086338</v>
+        <v>1.006366188694055</v>
       </c>
       <c r="I18">
-        <v>0.9999440803137206</v>
+        <v>1.006366188694055</v>
       </c>
       <c r="J18">
-        <v>1.000223678283378</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="K18">
-        <v>0.9999440803137206</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="L18">
-        <v>0.9999440803137206</v>
+        <v>0.9984084554193225</v>
       </c>
       <c r="M18">
-        <v>1.00008387929855</v>
+        <v>1.002387322056689</v>
       </c>
       <c r="N18">
-        <v>1.00008387929855</v>
+        <v>1.002387322056689</v>
       </c>
       <c r="O18">
-        <v>1.000096927561146</v>
+        <v>1.002758683622009</v>
       </c>
       <c r="P18">
-        <v>1.00003727963694</v>
+        <v>1.001061033177567</v>
       </c>
       <c r="Q18">
-        <v>1.00003727963694</v>
+        <v>1.001061033177567</v>
       </c>
       <c r="R18">
-        <v>1.000013979806135</v>
+        <v>1.000397888738006</v>
       </c>
       <c r="S18">
-        <v>1.000013979806135</v>
+        <v>1.000397888738006</v>
       </c>
       <c r="T18">
-        <v>1.000004970408476</v>
+        <v>1.000141472673205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="D19">
+        <v>0.9953882678964826</v>
+      </c>
+      <c r="E19">
+        <v>1.003804676614006</v>
+      </c>
+      <c r="F19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="G19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="H19">
+        <v>1.006917598759486</v>
+      </c>
+      <c r="I19">
+        <v>1.006917598759486</v>
+      </c>
+      <c r="J19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="K19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="L19">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="M19">
+        <v>1.002594099494237</v>
+      </c>
+      <c r="N19">
+        <v>1.002594099494237</v>
+      </c>
+      <c r="O19">
+        <v>1.002997625200827</v>
+      </c>
+      <c r="P19">
+        <v>1.001152933072487</v>
+      </c>
+      <c r="Q19">
+        <v>1.001152933072487</v>
+      </c>
+      <c r="R19">
+        <v>1.000432349861612</v>
+      </c>
+      <c r="S19">
+        <v>1.000432349861612</v>
+      </c>
+      <c r="T19">
+        <v>1.000153723992823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="D20">
+        <v>0.9999980013179504</v>
+      </c>
+      <c r="E20">
+        <v>1.000001649774266</v>
+      </c>
+      <c r="F20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="G20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="H20">
+        <v>1.000002998330656</v>
+      </c>
+      <c r="I20">
+        <v>1.000002998330656</v>
+      </c>
+      <c r="J20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="K20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="L20">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="M20">
+        <v>1.000001125134193</v>
+      </c>
+      <c r="N20">
+        <v>1.000001125134193</v>
+      </c>
+      <c r="O20">
+        <v>1.000001300014217</v>
+      </c>
+      <c r="P20">
+        <v>1.000000500735372</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000500735372</v>
+      </c>
+      <c r="R20">
+        <v>1.000000188535962</v>
+      </c>
+      <c r="S20">
+        <v>1.000000188535962</v>
+      </c>
+      <c r="T20">
+        <v>1.000000067539344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="D21">
+        <v>0.9999576461324727</v>
+      </c>
+      <c r="E21">
+        <v>1.000034943301783</v>
+      </c>
+      <c r="F21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="G21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="H21">
+        <v>1.000063530678476</v>
+      </c>
+      <c r="I21">
+        <v>1.000063530678476</v>
+      </c>
+      <c r="J21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="K21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="L21">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="M21">
+        <v>1.000023824660838</v>
+      </c>
+      <c r="N21">
+        <v>1.000023824660838</v>
+      </c>
+      <c r="O21">
+        <v>1.000027530874487</v>
+      </c>
+      <c r="P21">
+        <v>1.000010589321626</v>
+      </c>
+      <c r="Q21">
+        <v>1.000010589321626</v>
+      </c>
+      <c r="R21">
+        <v>1.000003971652019</v>
+      </c>
+      <c r="S21">
+        <v>1.000003971652019</v>
+      </c>
+      <c r="T21">
+        <v>1.000001412673722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="D22">
+        <v>0.9998508791399758</v>
+      </c>
+      <c r="E22">
+        <v>1.000123024086338</v>
+      </c>
+      <c r="F22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="G22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="H22">
+        <v>1.000223678283378</v>
+      </c>
+      <c r="I22">
+        <v>1.000223678283378</v>
+      </c>
+      <c r="J22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="K22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="L22">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="M22">
+        <v>1.000083879298549</v>
+      </c>
+      <c r="N22">
+        <v>1.000083879298549</v>
+      </c>
+      <c r="O22">
+        <v>1.000096927561146</v>
+      </c>
+      <c r="P22">
+        <v>1.00003727963694</v>
+      </c>
+      <c r="Q22">
+        <v>1.00003727963694</v>
+      </c>
+      <c r="R22">
+        <v>1.000013979806135</v>
+      </c>
+      <c r="S22">
+        <v>1.000013979806135</v>
+      </c>
+      <c r="T22">
+        <v>1.000004970408475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9998689968232461</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9996506557306095</v>
+      </c>
+      <c r="E23">
+        <v>1.000288205237059</v>
+      </c>
+      <c r="F23">
+        <v>0.9998689968232461</v>
+      </c>
+      <c r="G23">
+        <v>0.9998689968232461</v>
+      </c>
+      <c r="H23">
         <v>1.000524011978206</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.000524011978206</v>
+      </c>
+      <c r="J23">
         <v>0.9998689968232461</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>0.9998689968232461</v>
       </c>
-      <c r="G19">
-        <v>0.9996506557306095</v>
-      </c>
-      <c r="H19">
-        <v>1.000288205237059</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
         <v>0.9998689968232461</v>
       </c>
-      <c r="J19">
-        <v>1.000524011978206</v>
-      </c>
-      <c r="K19">
-        <v>0.9998689968232461</v>
-      </c>
-      <c r="L19">
-        <v>0.9998689968232461</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000196504400726</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000196504400726</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00022707134617</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000087335208233</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000087335208233</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000032750611986</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000032750611986</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000011643902602</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="D3">
-        <v>0.9995156754587047</v>
+        <v>0.9950873719668584</v>
       </c>
       <c r="E3">
-        <v>1.000399569183432</v>
+        <v>1.004052920893369</v>
       </c>
       <c r="F3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="G3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="H3">
-        <v>1.000726487131317</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="I3">
-        <v>1.000726487131317</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="J3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="K3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="L3">
-        <v>0.9998183796172059</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="M3">
-        <v>1.000272433374261</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="N3">
-        <v>1.000272433374261</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="O3">
-        <v>1.000314811977318</v>
+        <v>1.003193209959173</v>
       </c>
       <c r="P3">
-        <v>1.00012108212191</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="Q3">
-        <v>1.00012108212191</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="R3">
-        <v>1.000045406495734</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="S3">
-        <v>1.000045406495734</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="T3">
-        <v>1.000016145104178</v>
+        <v>1.000163755504323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="D4">
-        <v>0.9990650158641842</v>
+        <v>0.9954410071701372</v>
       </c>
       <c r="E4">
-        <v>1.000771364170159</v>
+        <v>1.00376117118245</v>
       </c>
       <c r="F4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="G4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="H4">
-        <v>1.001402477333158</v>
+        <v>1.006838490276751</v>
       </c>
       <c r="I4">
-        <v>1.001402477333158</v>
+        <v>1.006838490276751</v>
       </c>
       <c r="J4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="K4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="L4">
-        <v>0.999649383481052</v>
+        <v>0.9982903788585589</v>
       </c>
       <c r="M4">
-        <v>1.000525930407105</v>
+        <v>1.002564434567655</v>
       </c>
       <c r="N4">
-        <v>1.000525930407105</v>
+        <v>1.002564434567655</v>
       </c>
       <c r="O4">
-        <v>1.000607741661456</v>
+        <v>1.002963346772587</v>
       </c>
       <c r="P4">
-        <v>1.00023374809842</v>
+        <v>1.00113974933129</v>
       </c>
       <c r="Q4">
-        <v>1.00023374809842</v>
+        <v>1.00113974933129</v>
       </c>
       <c r="R4">
-        <v>1.000087656944078</v>
+        <v>1.000427406713107</v>
       </c>
       <c r="S4">
-        <v>1.000087656944078</v>
+        <v>1.000427406713107</v>
       </c>
       <c r="T4">
-        <v>1.000031167968443</v>
+        <v>1.000151967534169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="D5">
-        <v>0.9982082151850027</v>
+        <v>0.9944185457951489</v>
       </c>
       <c r="E5">
-        <v>1.001478221246088</v>
+        <v>1.004604703881402</v>
       </c>
       <c r="F5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="G5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="H5">
-        <v>1.002687675700755</v>
+        <v>1.008372184043128</v>
       </c>
       <c r="I5">
-        <v>1.002687675700755</v>
+        <v>1.008372184043128</v>
       </c>
       <c r="J5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="K5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="L5">
-        <v>0.9993280817078166</v>
+        <v>0.9979069556603775</v>
       </c>
       <c r="M5">
-        <v>1.001007878704286</v>
+        <v>1.003139569851753</v>
       </c>
       <c r="N5">
-        <v>1.001007878704286</v>
+        <v>1.003139569851753</v>
       </c>
       <c r="O5">
-        <v>1.001164659551553</v>
+        <v>1.003627947861636</v>
       </c>
       <c r="P5">
-        <v>1.000447946372129</v>
+        <v>1.001395365121294</v>
       </c>
       <c r="Q5">
-        <v>1.000447946372129</v>
+        <v>1.001395365121294</v>
       </c>
       <c r="R5">
-        <v>1.000167980206051</v>
+        <v>1.000523262756065</v>
       </c>
       <c r="S5">
-        <v>1.000167980206051</v>
+        <v>1.000523262756065</v>
       </c>
       <c r="T5">
-        <v>1.000059726209216</v>
+        <v>1.000186050116802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="D6">
-        <v>0.9973720334362303</v>
+        <v>0.9937973548863634</v>
       </c>
       <c r="E6">
-        <v>1.002168091180698</v>
+        <v>1.005117188863636</v>
       </c>
       <c r="F6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="G6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="H6">
-        <v>1.003941962018959</v>
+        <v>1.009303976420455</v>
       </c>
       <c r="I6">
-        <v>1.003941962018959</v>
+        <v>1.009303976420455</v>
       </c>
       <c r="J6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="K6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="L6">
-        <v>0.9990145155476003</v>
+        <v>0.9976740068749996</v>
       </c>
       <c r="M6">
-        <v>1.001478238783279</v>
+        <v>1.003488991647727</v>
       </c>
       <c r="N6">
-        <v>1.001478238783279</v>
+        <v>1.003488991647727</v>
       </c>
       <c r="O6">
-        <v>1.001708189582419</v>
+        <v>1.00403172405303</v>
       </c>
       <c r="P6">
-        <v>1.00065699770472</v>
+        <v>1.001550663390151</v>
       </c>
       <c r="Q6">
-        <v>1.00065699770472</v>
+        <v>1.001550663390151</v>
       </c>
       <c r="R6">
-        <v>1.00024637716544</v>
+        <v>1.000581499261363</v>
       </c>
       <c r="S6">
-        <v>1.00024637716544</v>
+        <v>1.000581499261363</v>
       </c>
       <c r="T6">
-        <v>1.000087605546448</v>
+        <v>1.000206756799242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="D7">
-        <v>0.9999688272042994</v>
+        <v>1.009157547384692</v>
       </c>
       <c r="E7">
-        <v>1.000025718326684</v>
+        <v>0.9924450223506787</v>
       </c>
       <c r="F7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="G7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="H7">
-        <v>1.000046759484484</v>
+        <v>0.9862636821310792</v>
       </c>
       <c r="I7">
-        <v>1.000046759484484</v>
+        <v>0.9862636821310792</v>
       </c>
       <c r="J7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="K7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="L7">
-        <v>0.9999883115824775</v>
+        <v>1.003434073699334</v>
       </c>
       <c r="M7">
-        <v>1.000017535533481</v>
+        <v>0.9948488779152065</v>
       </c>
       <c r="N7">
-        <v>1.000017535533481</v>
+        <v>0.9948488779152065</v>
       </c>
       <c r="O7">
-        <v>1.000020263131215</v>
+        <v>0.9940475927270306</v>
       </c>
       <c r="P7">
-        <v>1.00000779421648</v>
+        <v>0.997710609843249</v>
       </c>
       <c r="Q7">
-        <v>1.00000779421648</v>
+        <v>0.997710609843249</v>
       </c>
       <c r="R7">
-        <v>1.000002923557979</v>
+        <v>0.9991414758072703</v>
       </c>
       <c r="S7">
-        <v>1.000002923557979</v>
+        <v>0.9991414758072703</v>
       </c>
       <c r="T7">
-        <v>1.000001039960483</v>
+        <v>0.9996947454940753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="D8">
-        <v>0.9999299644195915</v>
+        <v>1.009026635603845</v>
       </c>
       <c r="E8">
-        <v>1.000057780386239</v>
+        <v>0.992553024790758</v>
       </c>
       <c r="F8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="G8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="H8">
-        <v>1.000105053431771</v>
+        <v>0.9864600498725593</v>
       </c>
       <c r="I8">
-        <v>1.000105053431771</v>
+        <v>0.9864600498725593</v>
       </c>
       <c r="J8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="K8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="L8">
-        <v>0.9999737380156635</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="M8">
-        <v>1.000039395723717</v>
+        <v>0.9949225158378179</v>
       </c>
       <c r="N8">
-        <v>1.000039395723717</v>
+        <v>0.9949225158378179</v>
       </c>
       <c r="O8">
-        <v>1.000045523944558</v>
+        <v>0.9941326854887979</v>
       </c>
       <c r="P8">
-        <v>1.000017509821033</v>
+        <v>0.9977433378262374</v>
       </c>
       <c r="Q8">
-        <v>1.000017509821033</v>
+        <v>0.9977433378262374</v>
       </c>
       <c r="R8">
-        <v>1.00000656686969</v>
+        <v>0.9991537488204472</v>
       </c>
       <c r="S8">
-        <v>1.00000656686969</v>
+        <v>0.9991537488204472</v>
       </c>
       <c r="T8">
-        <v>1.000002335380765</v>
+        <v>0.9996991092793985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="D9">
-        <v>0.9999069630591341</v>
+        <v>1.008902166403203</v>
       </c>
       <c r="E9">
-        <v>1.000076756757639</v>
+        <v>0.9926557120927505</v>
       </c>
       <c r="F9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="G9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="H9">
-        <v>1.000139556484474</v>
+        <v>0.9866467536959305</v>
       </c>
       <c r="I9">
-        <v>1.000139556484474</v>
+        <v>0.9866467536959305</v>
       </c>
       <c r="J9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="K9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="L9">
-        <v>0.9999651121393142</v>
+        <v>1.003338305875839</v>
       </c>
       <c r="M9">
-        <v>1.000052334311894</v>
+        <v>0.9949925297858846</v>
       </c>
       <c r="N9">
-        <v>1.000052334311894</v>
+        <v>0.9949925297858846</v>
       </c>
       <c r="O9">
-        <v>1.000060475127142</v>
+        <v>0.9942135905548399</v>
       </c>
       <c r="P9">
-        <v>1.000023260254367</v>
+        <v>0.9977744551492026</v>
       </c>
       <c r="Q9">
-        <v>1.000023260254367</v>
+        <v>0.9977744551492026</v>
       </c>
       <c r="R9">
-        <v>1.000008723225604</v>
+        <v>0.9991654178308617</v>
       </c>
       <c r="S9">
-        <v>1.000008723225604</v>
+        <v>0.9991654178308617</v>
       </c>
       <c r="T9">
-        <v>1.000003102119865</v>
+        <v>0.9997032583032334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="D10">
-        <v>0.9997942622808349</v>
+        <v>1.008724540286156</v>
       </c>
       <c r="E10">
-        <v>1.000169734565714</v>
+        <v>0.9928022544106904</v>
       </c>
       <c r="F10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="G10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="H10">
-        <v>1.00030860799081</v>
+        <v>0.9869131933947712</v>
       </c>
       <c r="I10">
-        <v>1.00030860799081</v>
+        <v>0.9869131933947712</v>
       </c>
       <c r="J10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="K10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="L10">
-        <v>0.9999228497551976</v>
+        <v>1.003271696067368</v>
       </c>
       <c r="M10">
-        <v>1.000115728873004</v>
+        <v>0.9950924447310696</v>
       </c>
       <c r="N10">
-        <v>1.000115728873004</v>
+        <v>0.9950924447310696</v>
       </c>
       <c r="O10">
-        <v>1.000133730770574</v>
+        <v>0.9943290479576099</v>
       </c>
       <c r="P10">
-        <v>1.000051435833735</v>
+        <v>0.997818861843169</v>
       </c>
       <c r="Q10">
-        <v>1.000051435833735</v>
+        <v>0.997818861843169</v>
       </c>
       <c r="R10">
-        <v>1.000019289314101</v>
+        <v>0.9991820703992188</v>
       </c>
       <c r="S10">
-        <v>1.000019289314101</v>
+        <v>0.9991820703992188</v>
       </c>
       <c r="T10">
-        <v>1.000006859017158</v>
+        <v>0.9997091793822869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="D11">
-        <v>0.9996749116274629</v>
+        <v>0.9995176561519995</v>
       </c>
       <c r="E11">
-        <v>1.000268198692632</v>
+        <v>1.000397935333121</v>
       </c>
       <c r="F11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="G11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="H11">
-        <v>1.000487630446495</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="I11">
-        <v>1.000487630446495</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="J11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="K11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="L11">
-        <v>0.9998780954195547</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="M11">
-        <v>1.000182862933025</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="N11">
-        <v>1.000182862933025</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="O11">
-        <v>1.000211308186228</v>
+        <v>1.000313524605976</v>
       </c>
       <c r="P11">
-        <v>1.000081273761868</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="Q11">
-        <v>1.000081273761868</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="R11">
-        <v>1.00003047917629</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="S11">
-        <v>1.00003047917629</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="T11">
-        <v>1.000010837837543</v>
+        <v>1.00001607911155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="D12">
-        <v>1.001666685447854</v>
+        <v>0.9998123043633844</v>
       </c>
       <c r="E12">
-        <v>0.9986249893097934</v>
+        <v>1.000154850016411</v>
       </c>
       <c r="F12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="G12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="H12">
-        <v>0.9974999865328452</v>
+        <v>1.000281543942163</v>
       </c>
       <c r="I12">
-        <v>0.9974999865328452</v>
+        <v>1.000281543942163</v>
       </c>
       <c r="J12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="K12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="L12">
-        <v>1.000625009638419</v>
+        <v>0.999929615464242</v>
       </c>
       <c r="M12">
-        <v>0.999062498085632</v>
+        <v>1.000105579703202</v>
       </c>
       <c r="N12">
-        <v>0.999062498085632</v>
+        <v>1.000105579703202</v>
       </c>
       <c r="O12">
-        <v>0.998916661827019</v>
+        <v>1.000122003140938</v>
       </c>
       <c r="P12">
-        <v>0.9995833352698943</v>
+        <v>1.000046924956882</v>
       </c>
       <c r="Q12">
-        <v>0.9995833352698943</v>
+        <v>1.000046924956882</v>
       </c>
       <c r="R12">
-        <v>0.9998437538620254</v>
+        <v>1.000017597583722</v>
       </c>
       <c r="S12">
-        <v>0.9998437538620254</v>
+        <v>1.000017597583722</v>
       </c>
       <c r="T12">
-        <v>0.999944448367625</v>
+        <v>1.000006257452447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="D13">
-        <v>1.000425165769706</v>
+        <v>0.9994066375388529</v>
       </c>
       <c r="E13">
-        <v>0.9996492393434698</v>
+        <v>1.000489526041633</v>
       </c>
       <c r="F13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="G13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="H13">
-        <v>0.9993622592357381</v>
+        <v>1.000890045363711</v>
       </c>
       <c r="I13">
-        <v>0.9993622592357381</v>
+        <v>1.000890045363711</v>
       </c>
       <c r="J13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="K13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="L13">
-        <v>1.000159433330617</v>
+        <v>0.9997774912265717</v>
       </c>
       <c r="M13">
-        <v>0.9997608462831774</v>
+        <v>1.000333768295141</v>
       </c>
       <c r="N13">
-        <v>0.9997608462831774</v>
+        <v>1.000333768295141</v>
       </c>
       <c r="O13">
-        <v>0.9997236439699416</v>
+        <v>1.000385687543972</v>
       </c>
       <c r="P13">
-        <v>0.999893708632324</v>
+        <v>1.000148342605618</v>
       </c>
       <c r="Q13">
-        <v>0.999893708632324</v>
+        <v>1.000148342605618</v>
       </c>
       <c r="R13">
-        <v>0.9999601398068971</v>
+        <v>1.000055629760856</v>
       </c>
       <c r="S13">
-        <v>0.9999601398068971</v>
+        <v>1.000055629760856</v>
       </c>
       <c r="T13">
-        <v>0.9999858273901273</v>
+        <v>1.000019780437319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="D14">
-        <v>1.002571405892419</v>
+        <v>0.9986536097938856</v>
       </c>
       <c r="E14">
-        <v>0.9978785790376954</v>
+        <v>1.00111077318583</v>
       </c>
       <c r="F14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="G14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="H14">
-        <v>0.9961428767317848</v>
+        <v>1.002019588560362</v>
       </c>
       <c r="I14">
-        <v>0.9961428767317848</v>
+        <v>1.002019588560362</v>
       </c>
       <c r="J14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="K14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="L14">
-        <v>1.000964278013256</v>
+        <v>0.9994951020491619</v>
       </c>
       <c r="M14">
-        <v>0.9985535773725204</v>
+        <v>1.000757345304762</v>
       </c>
       <c r="N14">
-        <v>0.9985535773725204</v>
+        <v>1.000757345304762</v>
       </c>
       <c r="O14">
-        <v>0.9983285779275787</v>
+        <v>1.000875154598451</v>
       </c>
       <c r="P14">
-        <v>0.9993571442527656</v>
+        <v>1.000336597552895</v>
       </c>
       <c r="Q14">
-        <v>0.9993571442527656</v>
+        <v>1.000336597552895</v>
       </c>
       <c r="R14">
-        <v>0.9997589276928882</v>
+        <v>1.000126223676962</v>
       </c>
       <c r="S14">
-        <v>0.9997589276928882</v>
+        <v>1.000126223676962</v>
       </c>
       <c r="T14">
-        <v>0.9999142826169446</v>
+        <v>1.000044879614594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="D15">
-        <v>1.000636117456318</v>
+        <v>0.9995156754587047</v>
       </c>
       <c r="E15">
-        <v>0.9994752027209357</v>
+        <v>1.000399569183432</v>
       </c>
       <c r="F15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="G15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="H15">
-        <v>0.999045823055188</v>
+        <v>1.000726487131317</v>
       </c>
       <c r="I15">
-        <v>0.999045823055188</v>
+        <v>1.000726487131317</v>
       </c>
       <c r="J15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="K15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="L15">
-        <v>1.000238545245429</v>
+        <v>0.9998183796172059</v>
       </c>
       <c r="M15">
-        <v>0.9996421841503087</v>
+        <v>1.000272433374261</v>
       </c>
       <c r="N15">
-        <v>0.9996421841503087</v>
+        <v>1.000272433374261</v>
       </c>
       <c r="O15">
-        <v>0.9995865236738511</v>
+        <v>1.000314811977318</v>
       </c>
       <c r="P15">
-        <v>0.9998409711820155</v>
+        <v>1.00012108212191</v>
       </c>
       <c r="Q15">
-        <v>0.9998409711820155</v>
+        <v>1.00012108212191</v>
       </c>
       <c r="R15">
-        <v>0.9999403646978691</v>
+        <v>1.000045406495734</v>
       </c>
       <c r="S15">
-        <v>0.9999403646978691</v>
+        <v>1.000045406495734</v>
       </c>
       <c r="T15">
-        <v>0.9999787964947883</v>
+        <v>1.000016145104178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="D16">
-        <v>0.990555337441581</v>
+        <v>0.9990650158641842</v>
       </c>
       <c r="E16">
-        <v>1.007791854425747</v>
+        <v>1.000771364170159</v>
       </c>
       <c r="F16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="G16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="H16">
-        <v>1.014167000076239</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="I16">
-        <v>1.014167000076239</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="J16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="K16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="L16">
-        <v>0.9964582517432278</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="M16">
-        <v>1.005312625909734</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="N16">
-        <v>1.005312625909734</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="O16">
-        <v>1.006139035415072</v>
+        <v>1.000607741661456</v>
       </c>
       <c r="P16">
-        <v>1.002361167854232</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="Q16">
-        <v>1.002361167854232</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="R16">
-        <v>1.000885438826481</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="S16">
-        <v>1.000885438826481</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="T16">
-        <v>1.000314824528875</v>
+        <v>1.000031167968443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="D17">
-        <v>0.9922783291960994</v>
+        <v>0.9982082151850027</v>
       </c>
       <c r="E17">
-        <v>1.006370384156126</v>
+        <v>1.001478221246088</v>
       </c>
       <c r="F17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="G17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="H17">
-        <v>1.011582510645794</v>
+        <v>1.002687675700755</v>
       </c>
       <c r="I17">
-        <v>1.011582510645794</v>
+        <v>1.002687675700755</v>
       </c>
       <c r="J17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="K17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="L17">
-        <v>0.9971043739903233</v>
+        <v>0.9993280817078166</v>
       </c>
       <c r="M17">
-        <v>1.004343442318059</v>
+        <v>1.001007878704286</v>
       </c>
       <c r="N17">
-        <v>1.004343442318059</v>
+        <v>1.001007878704286</v>
       </c>
       <c r="O17">
-        <v>1.005019089597414</v>
+        <v>1.001164659551553</v>
       </c>
       <c r="P17">
-        <v>1.001930419542147</v>
+        <v>1.000447946372129</v>
       </c>
       <c r="Q17">
-        <v>1.001930419542147</v>
+        <v>1.000447946372129</v>
       </c>
       <c r="R17">
-        <v>1.000723908154191</v>
+        <v>1.000167980206051</v>
       </c>
       <c r="S17">
-        <v>1.000723908154191</v>
+        <v>1.000167980206051</v>
       </c>
       <c r="T17">
-        <v>1.000257390994831</v>
+        <v>1.000059726209216</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="D18">
-        <v>0.9957558743345589</v>
+        <v>0.9973720334362303</v>
       </c>
       <c r="E18">
-        <v>1.003501406752651</v>
+        <v>1.002168091180698</v>
       </c>
       <c r="F18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="G18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="H18">
-        <v>1.006366188694055</v>
+        <v>1.003941962018959</v>
       </c>
       <c r="I18">
-        <v>1.006366188694055</v>
+        <v>1.003941962018959</v>
       </c>
       <c r="J18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="K18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="L18">
-        <v>0.9984084554193225</v>
+        <v>0.9990145155476003</v>
       </c>
       <c r="M18">
-        <v>1.002387322056689</v>
+        <v>1.001478238783279</v>
       </c>
       <c r="N18">
-        <v>1.002387322056689</v>
+        <v>1.001478238783279</v>
       </c>
       <c r="O18">
-        <v>1.002758683622009</v>
+        <v>1.001708189582419</v>
       </c>
       <c r="P18">
-        <v>1.001061033177567</v>
+        <v>1.00065699770472</v>
       </c>
       <c r="Q18">
-        <v>1.001061033177567</v>
+        <v>1.00065699770472</v>
       </c>
       <c r="R18">
-        <v>1.000397888738006</v>
+        <v>1.00024637716544</v>
       </c>
       <c r="S18">
-        <v>1.000397888738006</v>
+        <v>1.00024637716544</v>
       </c>
       <c r="T18">
-        <v>1.000141472673205</v>
+        <v>1.000087605546448</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="D19">
-        <v>0.9953882678964826</v>
+        <v>0.9999688272042994</v>
       </c>
       <c r="E19">
-        <v>1.003804676614006</v>
+        <v>1.000025718326684</v>
       </c>
       <c r="F19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="G19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="H19">
-        <v>1.006917598759486</v>
+        <v>1.000046759484484</v>
       </c>
       <c r="I19">
-        <v>1.006917598759486</v>
+        <v>1.000046759484484</v>
       </c>
       <c r="J19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="K19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="L19">
-        <v>0.9982706002289877</v>
+        <v>0.9999883115824775</v>
       </c>
       <c r="M19">
-        <v>1.002594099494237</v>
+        <v>1.000017535533481</v>
       </c>
       <c r="N19">
-        <v>1.002594099494237</v>
+        <v>1.000017535533481</v>
       </c>
       <c r="O19">
-        <v>1.002997625200827</v>
+        <v>1.000020263131215</v>
       </c>
       <c r="P19">
-        <v>1.001152933072487</v>
+        <v>1.00000779421648</v>
       </c>
       <c r="Q19">
-        <v>1.001152933072487</v>
+        <v>1.00000779421648</v>
       </c>
       <c r="R19">
-        <v>1.000432349861612</v>
+        <v>1.000002923557979</v>
       </c>
       <c r="S19">
-        <v>1.000432349861612</v>
+        <v>1.000002923557979</v>
       </c>
       <c r="T19">
-        <v>1.000153723992823</v>
+        <v>1.000001039960483</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="D20">
-        <v>0.9999980013179504</v>
+        <v>0.9999299644195915</v>
       </c>
       <c r="E20">
-        <v>1.000001649774266</v>
+        <v>1.000057780386239</v>
       </c>
       <c r="F20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="G20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="H20">
-        <v>1.000002998330656</v>
+        <v>1.000105053431771</v>
       </c>
       <c r="I20">
-        <v>1.000002998330656</v>
+        <v>1.000105053431771</v>
       </c>
       <c r="J20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="K20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="L20">
-        <v>0.999999251937731</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="M20">
-        <v>1.000001125134193</v>
+        <v>1.000039395723717</v>
       </c>
       <c r="N20">
-        <v>1.000001125134193</v>
+        <v>1.000039395723717</v>
       </c>
       <c r="O20">
-        <v>1.000001300014217</v>
+        <v>1.000045523944558</v>
       </c>
       <c r="P20">
-        <v>1.000000500735372</v>
+        <v>1.000017509821033</v>
       </c>
       <c r="Q20">
-        <v>1.000000500735372</v>
+        <v>1.000017509821033</v>
       </c>
       <c r="R20">
-        <v>1.000000188535962</v>
+        <v>1.00000656686969</v>
       </c>
       <c r="S20">
-        <v>1.000000188535962</v>
+        <v>1.00000656686969</v>
       </c>
       <c r="T20">
-        <v>1.000000067539344</v>
+        <v>1.000002335380765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="D21">
-        <v>0.9999576461324727</v>
+        <v>0.9999069630591341</v>
       </c>
       <c r="E21">
-        <v>1.000034943301783</v>
+        <v>1.000076756757639</v>
       </c>
       <c r="F21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="G21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="H21">
-        <v>1.000063530678476</v>
+        <v>1.000139556484474</v>
       </c>
       <c r="I21">
-        <v>1.000063530678476</v>
+        <v>1.000139556484474</v>
       </c>
       <c r="J21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="K21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="L21">
-        <v>0.9999841186432005</v>
+        <v>0.9999651121393142</v>
       </c>
       <c r="M21">
-        <v>1.000023824660838</v>
+        <v>1.000052334311894</v>
       </c>
       <c r="N21">
-        <v>1.000023824660838</v>
+        <v>1.000052334311894</v>
       </c>
       <c r="O21">
-        <v>1.000027530874487</v>
+        <v>1.000060475127142</v>
       </c>
       <c r="P21">
-        <v>1.000010589321626</v>
+        <v>1.000023260254367</v>
       </c>
       <c r="Q21">
-        <v>1.000010589321626</v>
+        <v>1.000023260254367</v>
       </c>
       <c r="R21">
-        <v>1.000003971652019</v>
+        <v>1.000008723225604</v>
       </c>
       <c r="S21">
-        <v>1.000003971652019</v>
+        <v>1.000008723225604</v>
       </c>
       <c r="T21">
-        <v>1.000001412673722</v>
+        <v>1.000003102119865</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="D22">
-        <v>0.9998508791399758</v>
+        <v>0.9997942622808349</v>
       </c>
       <c r="E22">
-        <v>1.000123024086338</v>
+        <v>1.000169734565714</v>
       </c>
       <c r="F22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="G22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="H22">
-        <v>1.000223678283378</v>
+        <v>1.00030860799081</v>
       </c>
       <c r="I22">
-        <v>1.000223678283378</v>
+        <v>1.00030860799081</v>
       </c>
       <c r="J22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="K22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="L22">
-        <v>0.9999440803137206</v>
+        <v>0.9999228497551976</v>
       </c>
       <c r="M22">
-        <v>1.000083879298549</v>
+        <v>1.000115728873004</v>
       </c>
       <c r="N22">
-        <v>1.000083879298549</v>
+        <v>1.000115728873004</v>
       </c>
       <c r="O22">
-        <v>1.000096927561146</v>
+        <v>1.000133730770574</v>
       </c>
       <c r="P22">
-        <v>1.00003727963694</v>
+        <v>1.000051435833735</v>
       </c>
       <c r="Q22">
-        <v>1.00003727963694</v>
+        <v>1.000051435833735</v>
       </c>
       <c r="R22">
-        <v>1.000013979806135</v>
+        <v>1.000019289314101</v>
       </c>
       <c r="S22">
-        <v>1.000013979806135</v>
+        <v>1.000019289314101</v>
       </c>
       <c r="T22">
-        <v>1.000004970408475</v>
+        <v>1.000006859017158</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="D23">
+        <v>0.9996749116274629</v>
+      </c>
+      <c r="E23">
+        <v>1.000268198692632</v>
+      </c>
+      <c r="F23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="G23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="H23">
+        <v>1.000487630446495</v>
+      </c>
+      <c r="I23">
+        <v>1.000487630446495</v>
+      </c>
+      <c r="J23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="K23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="L23">
+        <v>0.9998780954195547</v>
+      </c>
+      <c r="M23">
+        <v>1.000182862933025</v>
+      </c>
+      <c r="N23">
+        <v>1.000182862933025</v>
+      </c>
+      <c r="O23">
+        <v>1.000211308186228</v>
+      </c>
+      <c r="P23">
+        <v>1.000081273761868</v>
+      </c>
+      <c r="Q23">
+        <v>1.000081273761868</v>
+      </c>
+      <c r="R23">
+        <v>1.00003047917629</v>
+      </c>
+      <c r="S23">
+        <v>1.00003047917629</v>
+      </c>
+      <c r="T23">
+        <v>1.000010837837543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="D24">
+        <v>1.001666685447854</v>
+      </c>
+      <c r="E24">
+        <v>0.9986249893097934</v>
+      </c>
+      <c r="F24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="G24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="H24">
+        <v>0.9974999865328452</v>
+      </c>
+      <c r="I24">
+        <v>0.9974999865328452</v>
+      </c>
+      <c r="J24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="K24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="L24">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="M24">
+        <v>0.999062498085632</v>
+      </c>
+      <c r="N24">
+        <v>0.999062498085632</v>
+      </c>
+      <c r="O24">
+        <v>0.998916661827019</v>
+      </c>
+      <c r="P24">
+        <v>0.9995833352698943</v>
+      </c>
+      <c r="Q24">
+        <v>0.9995833352698943</v>
+      </c>
+      <c r="R24">
+        <v>0.9998437538620254</v>
+      </c>
+      <c r="S24">
+        <v>0.9998437538620254</v>
+      </c>
+      <c r="T24">
+        <v>0.999944448367625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="D25">
+        <v>1.000425165769706</v>
+      </c>
+      <c r="E25">
+        <v>0.9996492393434698</v>
+      </c>
+      <c r="F25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="G25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="H25">
+        <v>0.9993622592357381</v>
+      </c>
+      <c r="I25">
+        <v>0.9993622592357381</v>
+      </c>
+      <c r="J25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="K25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="L25">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="M25">
+        <v>0.9997608462831774</v>
+      </c>
+      <c r="N25">
+        <v>0.9997608462831774</v>
+      </c>
+      <c r="O25">
+        <v>0.9997236439699416</v>
+      </c>
+      <c r="P25">
+        <v>0.999893708632324</v>
+      </c>
+      <c r="Q25">
+        <v>0.999893708632324</v>
+      </c>
+      <c r="R25">
+        <v>0.9999601398068971</v>
+      </c>
+      <c r="S25">
+        <v>0.9999601398068971</v>
+      </c>
+      <c r="T25">
+        <v>0.9999858273901273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="D26">
+        <v>1.002571405892419</v>
+      </c>
+      <c r="E26">
+        <v>0.9978785790376954</v>
+      </c>
+      <c r="F26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="G26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="H26">
+        <v>0.9961428767317848</v>
+      </c>
+      <c r="I26">
+        <v>0.9961428767317848</v>
+      </c>
+      <c r="J26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="K26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="L26">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="M26">
+        <v>0.9985535773725204</v>
+      </c>
+      <c r="N26">
+        <v>0.9985535773725204</v>
+      </c>
+      <c r="O26">
+        <v>0.9983285779275787</v>
+      </c>
+      <c r="P26">
+        <v>0.9993571442527656</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993571442527656</v>
+      </c>
+      <c r="R26">
+        <v>0.9997589276928882</v>
+      </c>
+      <c r="S26">
+        <v>0.9997589276928882</v>
+      </c>
+      <c r="T26">
+        <v>0.9999142826169446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="D27">
+        <v>1.000636117456318</v>
+      </c>
+      <c r="E27">
+        <v>0.9994752027209357</v>
+      </c>
+      <c r="F27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="G27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="H27">
+        <v>0.999045823055188</v>
+      </c>
+      <c r="I27">
+        <v>0.999045823055188</v>
+      </c>
+      <c r="J27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="K27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="L27">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="M27">
+        <v>0.9996421841503087</v>
+      </c>
+      <c r="N27">
+        <v>0.9996421841503087</v>
+      </c>
+      <c r="O27">
+        <v>0.9995865236738511</v>
+      </c>
+      <c r="P27">
+        <v>0.9998409711820155</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998409711820155</v>
+      </c>
+      <c r="R27">
+        <v>0.9999403646978691</v>
+      </c>
+      <c r="S27">
+        <v>0.9999403646978691</v>
+      </c>
+      <c r="T27">
+        <v>0.9999787964947883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="D28">
+        <v>0.990555337441581</v>
+      </c>
+      <c r="E28">
+        <v>1.007791854425747</v>
+      </c>
+      <c r="F28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="G28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="H28">
+        <v>1.014167000076239</v>
+      </c>
+      <c r="I28">
+        <v>1.014167000076239</v>
+      </c>
+      <c r="J28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="K28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="L28">
+        <v>0.9964582517432278</v>
+      </c>
+      <c r="M28">
+        <v>1.005312625909734</v>
+      </c>
+      <c r="N28">
+        <v>1.005312625909734</v>
+      </c>
+      <c r="O28">
+        <v>1.006139035415072</v>
+      </c>
+      <c r="P28">
+        <v>1.002361167854232</v>
+      </c>
+      <c r="Q28">
+        <v>1.002361167854232</v>
+      </c>
+      <c r="R28">
+        <v>1.000885438826481</v>
+      </c>
+      <c r="S28">
+        <v>1.000885438826481</v>
+      </c>
+      <c r="T28">
+        <v>1.000314824528875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="D29">
+        <v>0.9922783291960994</v>
+      </c>
+      <c r="E29">
+        <v>1.006370384156126</v>
+      </c>
+      <c r="F29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="G29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="H29">
+        <v>1.011582510645794</v>
+      </c>
+      <c r="I29">
+        <v>1.011582510645794</v>
+      </c>
+      <c r="J29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="K29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="L29">
+        <v>0.9971043739903233</v>
+      </c>
+      <c r="M29">
+        <v>1.004343442318059</v>
+      </c>
+      <c r="N29">
+        <v>1.004343442318059</v>
+      </c>
+      <c r="O29">
+        <v>1.005019089597414</v>
+      </c>
+      <c r="P29">
+        <v>1.001930419542147</v>
+      </c>
+      <c r="Q29">
+        <v>1.001930419542147</v>
+      </c>
+      <c r="R29">
+        <v>1.000723908154191</v>
+      </c>
+      <c r="S29">
+        <v>1.000723908154191</v>
+      </c>
+      <c r="T29">
+        <v>1.000257390994831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="D30">
+        <v>0.9957558743345589</v>
+      </c>
+      <c r="E30">
+        <v>1.003501406752651</v>
+      </c>
+      <c r="F30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="G30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="H30">
+        <v>1.006366188694055</v>
+      </c>
+      <c r="I30">
+        <v>1.006366188694055</v>
+      </c>
+      <c r="J30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="K30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="L30">
+        <v>0.9984084554193225</v>
+      </c>
+      <c r="M30">
+        <v>1.002387322056689</v>
+      </c>
+      <c r="N30">
+        <v>1.002387322056689</v>
+      </c>
+      <c r="O30">
+        <v>1.002758683622009</v>
+      </c>
+      <c r="P30">
+        <v>1.001061033177567</v>
+      </c>
+      <c r="Q30">
+        <v>1.001061033177567</v>
+      </c>
+      <c r="R30">
+        <v>1.000397888738006</v>
+      </c>
+      <c r="S30">
+        <v>1.000397888738006</v>
+      </c>
+      <c r="T30">
+        <v>1.000141472673205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="D31">
+        <v>0.9953882678964826</v>
+      </c>
+      <c r="E31">
+        <v>1.003804676614006</v>
+      </c>
+      <c r="F31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="G31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="H31">
+        <v>1.006917598759486</v>
+      </c>
+      <c r="I31">
+        <v>1.006917598759486</v>
+      </c>
+      <c r="J31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="K31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="L31">
+        <v>0.9982706002289877</v>
+      </c>
+      <c r="M31">
+        <v>1.002594099494237</v>
+      </c>
+      <c r="N31">
+        <v>1.002594099494237</v>
+      </c>
+      <c r="O31">
+        <v>1.002997625200827</v>
+      </c>
+      <c r="P31">
+        <v>1.001152933072487</v>
+      </c>
+      <c r="Q31">
+        <v>1.001152933072487</v>
+      </c>
+      <c r="R31">
+        <v>1.000432349861612</v>
+      </c>
+      <c r="S31">
+        <v>1.000432349861612</v>
+      </c>
+      <c r="T31">
+        <v>1.000153723992823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="D32">
+        <v>0.9891320578082193</v>
+      </c>
+      <c r="E32">
+        <v>1.00896606260274</v>
+      </c>
+      <c r="F32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="G32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="H32">
+        <v>1.016301922054794</v>
+      </c>
+      <c r="I32">
+        <v>1.016301922054794</v>
+      </c>
+      <c r="J32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="K32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="L32">
+        <v>0.9959245213698635</v>
+      </c>
+      <c r="M32">
+        <v>1.006113221712329</v>
+      </c>
+      <c r="N32">
+        <v>1.006113221712329</v>
+      </c>
+      <c r="O32">
+        <v>1.007064168675799</v>
+      </c>
+      <c r="P32">
+        <v>1.00271698826484</v>
+      </c>
+      <c r="Q32">
+        <v>1.00271698826484</v>
+      </c>
+      <c r="R32">
+        <v>1.001018871541096</v>
+      </c>
+      <c r="S32">
+        <v>1.001018871541096</v>
+      </c>
+      <c r="T32">
+        <v>1.000362267762557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="D33">
+        <v>1.003787454736842</v>
+      </c>
+      <c r="E33">
+        <v>0.9968753394736846</v>
+      </c>
+      <c r="F33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="G33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="H33">
+        <v>0.9943188094736841</v>
+      </c>
+      <c r="I33">
+        <v>0.9943188094736841</v>
+      </c>
+      <c r="J33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="K33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="L33">
+        <v>1.001420299473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9978695544736842</v>
+      </c>
+      <c r="N33">
+        <v>0.9978695544736842</v>
+      </c>
+      <c r="O33">
+        <v>0.9975381494736842</v>
+      </c>
+      <c r="P33">
+        <v>0.9990531361403509</v>
+      </c>
+      <c r="Q33">
+        <v>0.9990531361403509</v>
+      </c>
+      <c r="R33">
+        <v>0.9996449269736842</v>
+      </c>
+      <c r="S33">
+        <v>0.9996449269736842</v>
+      </c>
+      <c r="T33">
+        <v>0.9998737503508773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="D34">
+        <v>1.006269825263158</v>
+      </c>
+      <c r="E34">
+        <v>0.9948273968421052</v>
+      </c>
+      <c r="F34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="G34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="H34">
+        <v>0.9905952668421051</v>
+      </c>
+      <c r="I34">
+        <v>0.9905952668421051</v>
+      </c>
+      <c r="J34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="K34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="L34">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="M34">
+        <v>0.9964732226315789</v>
+      </c>
+      <c r="N34">
+        <v>0.9964732226315789</v>
+      </c>
+      <c r="O34">
+        <v>0.9959246140350877</v>
+      </c>
+      <c r="P34">
+        <v>0.9984325412280701</v>
+      </c>
+      <c r="Q34">
+        <v>0.9984325412280701</v>
+      </c>
+      <c r="R34">
+        <v>0.9994122005263157</v>
+      </c>
+      <c r="S34">
+        <v>0.9994122005263157</v>
+      </c>
+      <c r="T34">
+        <v>0.9997910040350876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="D35">
+        <v>0.9830003315030313</v>
+      </c>
+      <c r="E35">
+        <v>1.014024748843248</v>
+      </c>
+      <c r="F35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="G35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="H35">
+        <v>1.025499510959263</v>
+      </c>
+      <c r="I35">
+        <v>1.025499510959263</v>
+      </c>
+      <c r="J35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="K35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="L35">
+        <v>0.9936251254377307</v>
+      </c>
+      <c r="M35">
+        <v>1.009562318198497</v>
+      </c>
+      <c r="N35">
+        <v>1.009562318198497</v>
+      </c>
+      <c r="O35">
+        <v>1.011049795080081</v>
+      </c>
+      <c r="P35">
+        <v>1.004249920611575</v>
+      </c>
+      <c r="Q35">
+        <v>1.004249920611575</v>
+      </c>
+      <c r="R35">
+        <v>1.001593721818114</v>
+      </c>
+      <c r="S35">
+        <v>1.001593721818114</v>
+      </c>
+      <c r="T35">
+        <v>1.000566661269789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="D36">
+        <v>0.9999980013179504</v>
+      </c>
+      <c r="E36">
+        <v>1.000001649774266</v>
+      </c>
+      <c r="F36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="G36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="H36">
+        <v>1.000002998330656</v>
+      </c>
+      <c r="I36">
+        <v>1.000002998330656</v>
+      </c>
+      <c r="J36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="K36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="L36">
+        <v>0.999999251937731</v>
+      </c>
+      <c r="M36">
+        <v>1.000001125134193</v>
+      </c>
+      <c r="N36">
+        <v>1.000001125134193</v>
+      </c>
+      <c r="O36">
+        <v>1.000001300014217</v>
+      </c>
+      <c r="P36">
+        <v>1.000000500735372</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000500735372</v>
+      </c>
+      <c r="R36">
+        <v>1.000000188535962</v>
+      </c>
+      <c r="S36">
+        <v>1.000000188535962</v>
+      </c>
+      <c r="T36">
+        <v>1.000000067539344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="D37">
+        <v>0.9999576461324727</v>
+      </c>
+      <c r="E37">
+        <v>1.000034943301783</v>
+      </c>
+      <c r="F37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="G37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="H37">
+        <v>1.000063530678476</v>
+      </c>
+      <c r="I37">
+        <v>1.000063530678476</v>
+      </c>
+      <c r="J37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="K37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="L37">
+        <v>0.9999841186432005</v>
+      </c>
+      <c r="M37">
+        <v>1.000023824660838</v>
+      </c>
+      <c r="N37">
+        <v>1.000023824660838</v>
+      </c>
+      <c r="O37">
+        <v>1.000027530874487</v>
+      </c>
+      <c r="P37">
+        <v>1.000010589321626</v>
+      </c>
+      <c r="Q37">
+        <v>1.000010589321626</v>
+      </c>
+      <c r="R37">
+        <v>1.000003971652019</v>
+      </c>
+      <c r="S37">
+        <v>1.000003971652019</v>
+      </c>
+      <c r="T37">
+        <v>1.000001412673722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="D38">
+        <v>0.9998508791399758</v>
+      </c>
+      <c r="E38">
+        <v>1.000123024086338</v>
+      </c>
+      <c r="F38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="G38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="H38">
+        <v>1.000223678283378</v>
+      </c>
+      <c r="I38">
+        <v>1.000223678283378</v>
+      </c>
+      <c r="J38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="K38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="L38">
+        <v>0.9999440803137206</v>
+      </c>
+      <c r="M38">
+        <v>1.000083879298549</v>
+      </c>
+      <c r="N38">
+        <v>1.000083879298549</v>
+      </c>
+      <c r="O38">
+        <v>1.000096927561146</v>
+      </c>
+      <c r="P38">
+        <v>1.00003727963694</v>
+      </c>
+      <c r="Q38">
+        <v>1.00003727963694</v>
+      </c>
+      <c r="R38">
+        <v>1.000013979806135</v>
+      </c>
+      <c r="S38">
+        <v>1.000013979806135</v>
+      </c>
+      <c r="T38">
+        <v>1.000004970408475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9996506557306095</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000288205237059</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000524011978206</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000524011978206</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998689968232461</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000196504400726</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000196504400726</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00022707134617</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000087335208233</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000087335208233</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000032750611986</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000032750611986</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000011643902602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="D40">
+        <v>1.002611608044971</v>
+      </c>
+      <c r="E40">
+        <v>0.997845423945888</v>
+      </c>
+      <c r="F40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="G40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="H40">
+        <v>0.9960825867260317</v>
+      </c>
+      <c r="I40">
+        <v>0.9960825867260317</v>
+      </c>
+      <c r="J40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="K40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="L40">
+        <v>1.000979356467108</v>
+      </c>
+      <c r="M40">
+        <v>0.9985309715965698</v>
+      </c>
+      <c r="N40">
+        <v>0.9985309715965698</v>
+      </c>
+      <c r="O40">
+        <v>0.9983024557130092</v>
+      </c>
+      <c r="P40">
+        <v>0.9993470998867492</v>
+      </c>
+      <c r="Q40">
+        <v>0.9993470998867492</v>
+      </c>
+      <c r="R40">
+        <v>0.9997551640318388</v>
+      </c>
+      <c r="S40">
+        <v>0.9997551640318388</v>
+      </c>
+      <c r="T40">
+        <v>0.9999129480197023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="D41">
+        <v>0.9997992319482247</v>
+      </c>
+      <c r="E41">
+        <v>1.000165636129684</v>
+      </c>
+      <c r="F41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="G41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="H41">
+        <v>1.000301152776666</v>
+      </c>
+      <c r="I41">
+        <v>1.000301152776666</v>
+      </c>
+      <c r="J41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="K41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="L41">
+        <v>0.9999247138418481</v>
+      </c>
+      <c r="M41">
+        <v>1.000112933309257</v>
+      </c>
+      <c r="N41">
+        <v>1.000112933309257</v>
+      </c>
+      <c r="O41">
+        <v>1.000130500916066</v>
+      </c>
+      <c r="P41">
+        <v>1.000050193486787</v>
+      </c>
+      <c r="Q41">
+        <v>1.000050193486787</v>
+      </c>
+      <c r="R41">
+        <v>1.000018823575552</v>
+      </c>
+      <c r="S41">
+        <v>1.000018823575552</v>
+      </c>
+      <c r="T41">
+        <v>1.00000669373002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="D42">
+        <v>0.9946397502772361</v>
+      </c>
+      <c r="E42">
+        <v>1.004422207134344</v>
+      </c>
+      <c r="F42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="G42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="H42">
+        <v>1.00804037504674</v>
+      </c>
+      <c r="I42">
+        <v>1.00804037504674</v>
+      </c>
+      <c r="J42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="K42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="L42">
+        <v>0.9979899081624096</v>
+      </c>
+      <c r="M42">
+        <v>1.003015141604575</v>
+      </c>
+      <c r="N42">
+        <v>1.003015141604575</v>
+      </c>
+      <c r="O42">
+        <v>1.003484163447831</v>
+      </c>
+      <c r="P42">
+        <v>1.00134006379052</v>
+      </c>
+      <c r="Q42">
+        <v>1.00134006379052</v>
+      </c>
+      <c r="R42">
+        <v>1.000502524883492</v>
+      </c>
+      <c r="S42">
+        <v>1.000502524883492</v>
+      </c>
+      <c r="T42">
+        <v>1.000178676157591</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998183796172059</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="D3">
-        <v>1.000726487131317</v>
+        <v>0.9999299644195915</v>
       </c>
       <c r="E3">
-        <v>0.9998183796172059</v>
+        <v>1.000057780386239</v>
       </c>
       <c r="F3">
-        <v>0.9998183796172059</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="G3">
-        <v>0.9995156754587047</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="H3">
-        <v>1.000399569183432</v>
+        <v>1.000105053431771</v>
       </c>
       <c r="I3">
-        <v>0.9998183796172059</v>
+        <v>1.000105053431771</v>
       </c>
       <c r="J3">
-        <v>1.000726487131317</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="K3">
-        <v>0.9998183796172059</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="L3">
-        <v>0.9998183796172059</v>
+        <v>0.9999737380156635</v>
       </c>
       <c r="M3">
-        <v>1.000272433374261</v>
+        <v>1.000039395723717</v>
       </c>
       <c r="N3">
-        <v>1.000272433374261</v>
+        <v>1.000039395723717</v>
       </c>
       <c r="O3">
-        <v>1.000314811977318</v>
+        <v>1.000045523944558</v>
       </c>
       <c r="P3">
-        <v>1.00012108212191</v>
+        <v>1.000017509821033</v>
       </c>
       <c r="Q3">
-        <v>1.00012108212191</v>
+        <v>1.000017509821033</v>
       </c>
       <c r="R3">
-        <v>1.000045406495734</v>
+        <v>1.00000656686969</v>
       </c>
       <c r="S3">
-        <v>1.000045406495734</v>
+        <v>1.00000656686969</v>
       </c>
       <c r="T3">
-        <v>1.000016145104178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000002335380765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.999649383481052</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="D4">
-        <v>1.001402477333158</v>
+        <v>1.002611608044971</v>
       </c>
       <c r="E4">
-        <v>0.999649383481052</v>
+        <v>0.997845423945888</v>
       </c>
       <c r="F4">
-        <v>0.999649383481052</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="G4">
-        <v>0.9990650158641842</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="H4">
-        <v>1.000771364170159</v>
+        <v>0.9960825867260317</v>
       </c>
       <c r="I4">
-        <v>0.999649383481052</v>
+        <v>0.9960825867260317</v>
       </c>
       <c r="J4">
-        <v>1.001402477333158</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="K4">
-        <v>0.999649383481052</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="L4">
-        <v>0.999649383481052</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="M4">
-        <v>1.000525930407105</v>
+        <v>0.9985309715965698</v>
       </c>
       <c r="N4">
-        <v>1.000525930407105</v>
+        <v>0.9985309715965698</v>
       </c>
       <c r="O4">
-        <v>1.000607741661456</v>
+        <v>0.9983024557130092</v>
       </c>
       <c r="P4">
-        <v>1.00023374809842</v>
+        <v>0.9993470998867492</v>
       </c>
       <c r="Q4">
-        <v>1.00023374809842</v>
+        <v>0.9993470998867492</v>
       </c>
       <c r="R4">
-        <v>1.000087656944078</v>
+        <v>0.9997551640318388</v>
       </c>
       <c r="S4">
-        <v>1.000087656944078</v>
+        <v>0.9997551640318388</v>
       </c>
       <c r="T4">
-        <v>1.000031167968443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999129480197023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993280817078166</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="D5">
-        <v>1.002687675700755</v>
+        <v>0.9950873719668584</v>
       </c>
       <c r="E5">
-        <v>0.9993280817078166</v>
+        <v>1.004052920893369</v>
       </c>
       <c r="F5">
-        <v>0.9993280817078166</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="G5">
-        <v>0.9982082151850027</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="H5">
-        <v>1.001478221246088</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="I5">
-        <v>0.9993280817078166</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="J5">
-        <v>1.002687675700755</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="K5">
-        <v>0.9993280817078166</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="L5">
-        <v>0.9993280817078166</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="M5">
-        <v>1.001007878704286</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="N5">
-        <v>1.001007878704286</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="O5">
-        <v>1.001164659551553</v>
+        <v>1.003193209959173</v>
       </c>
       <c r="P5">
-        <v>1.000447946372129</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="Q5">
-        <v>1.000447946372129</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="R5">
-        <v>1.000167980206051</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="S5">
-        <v>1.000167980206051</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="T5">
-        <v>1.000059726209216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000163755504323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990145155476003</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="D6">
-        <v>1.003941962018959</v>
+        <v>0.9830003315030313</v>
       </c>
       <c r="E6">
-        <v>0.9990145155476003</v>
+        <v>1.014024748843248</v>
       </c>
       <c r="F6">
-        <v>0.9990145155476003</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="G6">
-        <v>0.9973720334362303</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="H6">
-        <v>1.002168091180698</v>
+        <v>1.025499510959263</v>
       </c>
       <c r="I6">
-        <v>0.9990145155476003</v>
+        <v>1.025499510959263</v>
       </c>
       <c r="J6">
-        <v>1.003941962018959</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="K6">
-        <v>0.9990145155476003</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="L6">
-        <v>0.9990145155476003</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="M6">
-        <v>1.001478238783279</v>
+        <v>1.009562318198497</v>
       </c>
       <c r="N6">
-        <v>1.001478238783279</v>
+        <v>1.009562318198497</v>
       </c>
       <c r="O6">
-        <v>1.001708189582419</v>
+        <v>1.011049795080081</v>
       </c>
       <c r="P6">
-        <v>1.00065699770472</v>
+        <v>1.004249920611575</v>
       </c>
       <c r="Q6">
-        <v>1.00065699770472</v>
+        <v>1.004249920611575</v>
       </c>
       <c r="R6">
-        <v>1.00024637716544</v>
+        <v>1.001593721818114</v>
       </c>
       <c r="S6">
-        <v>1.00024637716544</v>
+        <v>1.001593721818114</v>
       </c>
       <c r="T6">
-        <v>1.000087605546448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.000566661269789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999883115824775</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="D7">
-        <v>1.000046759484484</v>
+        <v>0.9995176561519995</v>
       </c>
       <c r="E7">
-        <v>0.9999883115824775</v>
+        <v>1.000397935333121</v>
       </c>
       <c r="F7">
-        <v>0.9999883115824775</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="G7">
-        <v>0.9999688272042995</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="H7">
-        <v>1.000025718326684</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="I7">
-        <v>0.9999883115824775</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="J7">
-        <v>1.000046759484484</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="K7">
-        <v>0.9999883115824775</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="L7">
-        <v>0.9999883115824775</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="M7">
-        <v>1.000017535533481</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="N7">
-        <v>1.000017535533481</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="O7">
-        <v>1.000020263131215</v>
+        <v>1.000313524605976</v>
       </c>
       <c r="P7">
-        <v>1.00000779421648</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="Q7">
-        <v>1.00000779421648</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="R7">
-        <v>1.000002923557979</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="S7">
-        <v>1.000002923557979</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="T7">
-        <v>1.000001039960483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.00001607911155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999737380156635</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="D8">
-        <v>1.000105053431771</v>
+        <v>0.9999576461324727</v>
       </c>
       <c r="E8">
-        <v>0.9999737380156635</v>
+        <v>1.000034943301783</v>
       </c>
       <c r="F8">
-        <v>0.9999737380156635</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="G8">
-        <v>0.9999299644195915</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="H8">
-        <v>1.000057780386239</v>
+        <v>1.000063530678476</v>
       </c>
       <c r="I8">
-        <v>0.9999737380156635</v>
+        <v>1.000063530678476</v>
       </c>
       <c r="J8">
-        <v>1.000105053431771</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="K8">
-        <v>0.9999737380156635</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="L8">
-        <v>0.9999737380156635</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="M8">
-        <v>1.000039395723717</v>
+        <v>1.000023824660838</v>
       </c>
       <c r="N8">
-        <v>1.000039395723717</v>
+        <v>1.000023824660838</v>
       </c>
       <c r="O8">
-        <v>1.000045523944558</v>
+        <v>1.000027530874487</v>
       </c>
       <c r="P8">
-        <v>1.000017509821033</v>
+        <v>1.000010589321626</v>
       </c>
       <c r="Q8">
-        <v>1.000017509821033</v>
+        <v>1.000010589321626</v>
       </c>
       <c r="R8">
-        <v>1.00000656686969</v>
+        <v>1.000003971652019</v>
       </c>
       <c r="S8">
-        <v>1.00000656686969</v>
+        <v>1.000003971652019</v>
       </c>
       <c r="T8">
-        <v>1.000002335380765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000001412673722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999651121393142</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="D9">
-        <v>1.000139556484474</v>
+        <v>0.9990650158641842</v>
       </c>
       <c r="E9">
-        <v>0.9999651121393142</v>
+        <v>1.000771364170159</v>
       </c>
       <c r="F9">
-        <v>0.9999651121393142</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="G9">
-        <v>0.9999069630591341</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="H9">
-        <v>1.000076756757639</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="I9">
-        <v>0.9999651121393142</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="J9">
-        <v>1.000139556484474</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="K9">
-        <v>0.9999651121393142</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="L9">
-        <v>0.9999651121393142</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="M9">
-        <v>1.000052334311894</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="N9">
-        <v>1.000052334311894</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="O9">
-        <v>1.000060475127142</v>
+        <v>1.000607741661456</v>
       </c>
       <c r="P9">
-        <v>1.000023260254367</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="Q9">
-        <v>1.000023260254367</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="R9">
-        <v>1.000008723225604</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="S9">
-        <v>1.000008723225604</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="T9">
-        <v>1.000003102119865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000031167968443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999228497551976</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="D10">
-        <v>1.00030860799081</v>
+        <v>0.9827469796790326</v>
       </c>
       <c r="E10">
-        <v>0.9999228497551976</v>
+        <v>1.014233764495541</v>
       </c>
       <c r="F10">
-        <v>0.9999228497551976</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="G10">
-        <v>0.999794262280835</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="H10">
-        <v>1.000169734565714</v>
+        <v>1.025879539848777</v>
       </c>
       <c r="I10">
-        <v>0.9999228497551976</v>
+        <v>1.025879539848777</v>
       </c>
       <c r="J10">
-        <v>1.00030860799081</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="K10">
-        <v>0.9999228497551976</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="L10">
-        <v>0.9999228497551976</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="M10">
-        <v>1.000115728873004</v>
+        <v>1.009704829146367</v>
       </c>
       <c r="N10">
-        <v>1.000115728873004</v>
+        <v>1.009704829146367</v>
       </c>
       <c r="O10">
-        <v>1.000133730770574</v>
+        <v>1.011214474262758</v>
       </c>
       <c r="P10">
-        <v>1.000051435833735</v>
+        <v>1.004313258912231</v>
       </c>
       <c r="Q10">
-        <v>1.000051435833735</v>
+        <v>1.004313258912231</v>
       </c>
       <c r="R10">
-        <v>1.000019289314101</v>
+        <v>1.001617473795163</v>
       </c>
       <c r="S10">
-        <v>1.000019289314101</v>
+        <v>1.001617473795163</v>
       </c>
       <c r="T10">
-        <v>1.000006859017158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.000575106559204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998780954195547</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="D11">
-        <v>1.000487630446495</v>
+        <v>1.001057353678831</v>
       </c>
       <c r="E11">
-        <v>0.9998780954195547</v>
+        <v>0.9991276853559338</v>
       </c>
       <c r="F11">
-        <v>0.9998780954195547</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="G11">
-        <v>0.9996749116274629</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="H11">
-        <v>1.000268198692632</v>
+        <v>0.9984139701064446</v>
       </c>
       <c r="I11">
-        <v>0.9998780954195547</v>
+        <v>0.9984139701064446</v>
       </c>
       <c r="J11">
-        <v>1.000487630446495</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="K11">
-        <v>0.9998780954195547</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="L11">
-        <v>0.9998780954195547</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="M11">
-        <v>1.000182862933025</v>
+        <v>0.9994052407901532</v>
       </c>
       <c r="N11">
-        <v>1.000182862933025</v>
+        <v>0.9994052407901532</v>
       </c>
       <c r="O11">
-        <v>1.000211308186228</v>
+        <v>0.9993127223120801</v>
       </c>
       <c r="P11">
-        <v>1.000081273761868</v>
+        <v>0.9997356643513896</v>
       </c>
       <c r="Q11">
-        <v>1.000081273761868</v>
+        <v>0.9997356643513896</v>
       </c>
       <c r="R11">
-        <v>1.00003047917629</v>
+        <v>0.9999008761320076</v>
       </c>
       <c r="S11">
-        <v>1.00003047917629</v>
+        <v>0.9999008761320076</v>
       </c>
       <c r="T11">
-        <v>1.000010837837543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999647572604661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000625009638419</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="D12">
-        <v>0.997499986532845</v>
+        <v>0.9949155400736841</v>
       </c>
       <c r="E12">
-        <v>1.000625009638419</v>
+        <v>1.004194683810526</v>
       </c>
       <c r="F12">
-        <v>1.000625009638419</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="G12">
-        <v>1.001666685447854</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="H12">
-        <v>0.9986249893097934</v>
+        <v>1.007626694410527</v>
       </c>
       <c r="I12">
-        <v>1.000625009638419</v>
+        <v>1.007626694410527</v>
       </c>
       <c r="J12">
-        <v>0.997499986532845</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="K12">
-        <v>1.000625009638419</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="L12">
-        <v>1.000625009638419</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="M12">
-        <v>0.999062498085632</v>
+        <v>1.002860011194736</v>
       </c>
       <c r="N12">
-        <v>0.999062498085632</v>
+        <v>1.002860011194736</v>
       </c>
       <c r="O12">
-        <v>0.998916661827019</v>
+        <v>1.003304902066666</v>
       </c>
       <c r="P12">
-        <v>0.9995833352698943</v>
+        <v>1.001271116789473</v>
       </c>
       <c r="Q12">
-        <v>0.9995833352698943</v>
+        <v>1.001271116789473</v>
       </c>
       <c r="R12">
-        <v>0.9998437538620255</v>
+        <v>1.000476669586841</v>
       </c>
       <c r="S12">
-        <v>0.9998437538620255</v>
+        <v>1.000476669586841</v>
       </c>
       <c r="T12">
-        <v>0.999944448367625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000169483705262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000159433330617</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="D13">
-        <v>0.9993622592357381</v>
+        <v>1.003393220618471</v>
       </c>
       <c r="E13">
-        <v>1.000159433330617</v>
+        <v>0.9972005960041864</v>
       </c>
       <c r="F13">
-        <v>1.000159433330617</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="G13">
-        <v>1.000425165769706</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="H13">
-        <v>0.9996492393434699</v>
+        <v>0.9949101736426418</v>
       </c>
       <c r="I13">
-        <v>1.000159433330617</v>
+        <v>0.9949101736426418</v>
       </c>
       <c r="J13">
-        <v>0.9993622592357381</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="K13">
-        <v>1.000159433330617</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="L13">
-        <v>1.000159433330617</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="M13">
-        <v>0.9997608462831774</v>
+        <v>0.998091316000706</v>
       </c>
       <c r="N13">
-        <v>0.9997608462831774</v>
+        <v>0.998091316000706</v>
       </c>
       <c r="O13">
-        <v>0.9997236439699416</v>
+        <v>0.9977944093351995</v>
       </c>
       <c r="P13">
-        <v>0.999893708632324</v>
+        <v>0.9991516967867273</v>
       </c>
       <c r="Q13">
-        <v>0.999893708632324</v>
+        <v>0.9991516967867273</v>
       </c>
       <c r="R13">
-        <v>0.9999601398068971</v>
+        <v>0.999681887179738</v>
       </c>
       <c r="S13">
-        <v>0.9999601398068971</v>
+        <v>0.999681887179738</v>
       </c>
       <c r="T13">
-        <v>0.9999858273901273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9998868942236016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000964278013256</v>
+        <v>0.98882193</v>
       </c>
       <c r="D14">
-        <v>0.9961428767317848</v>
+        <v>0.9701918100000013</v>
       </c>
       <c r="E14">
-        <v>1.000964278013256</v>
+        <v>1.024591800000001</v>
       </c>
       <c r="F14">
-        <v>1.000964278013256</v>
+        <v>0.98882193</v>
       </c>
       <c r="G14">
-        <v>1.002571405892419</v>
+        <v>0.98882193</v>
       </c>
       <c r="H14">
-        <v>0.9978785790376954</v>
+        <v>1.0447123</v>
       </c>
       <c r="I14">
-        <v>1.000964278013256</v>
+        <v>1.0447123</v>
       </c>
       <c r="J14">
-        <v>0.9961428767317848</v>
+        <v>0.98882193</v>
       </c>
       <c r="K14">
-        <v>1.000964278013256</v>
+        <v>0.98882193</v>
       </c>
       <c r="L14">
-        <v>1.000964278013256</v>
+        <v>0.98882193</v>
       </c>
       <c r="M14">
-        <v>0.9985535773725204</v>
+        <v>1.016767115</v>
       </c>
       <c r="N14">
-        <v>0.9985535773725204</v>
+        <v>1.016767115</v>
       </c>
       <c r="O14">
-        <v>0.9983285779275787</v>
+        <v>1.019375343333334</v>
       </c>
       <c r="P14">
-        <v>0.9993571442527656</v>
+        <v>1.007452053333333</v>
       </c>
       <c r="Q14">
-        <v>0.9993571442527656</v>
+        <v>1.007452053333333</v>
       </c>
       <c r="R14">
-        <v>0.9997589276928882</v>
+        <v>1.0027945225</v>
       </c>
       <c r="S14">
-        <v>0.9997589276928882</v>
+        <v>1.0027945225</v>
       </c>
       <c r="T14">
-        <v>0.9999142826169446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.000993616666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000238545245429</v>
+        <v>1.0042979</v>
       </c>
       <c r="D15">
-        <v>0.999045823055188</v>
+        <v>1.0114611</v>
       </c>
       <c r="E15">
-        <v>1.000238545245429</v>
+        <v>0.99054463</v>
       </c>
       <c r="F15">
-        <v>1.000238545245429</v>
+        <v>1.0042979</v>
       </c>
       <c r="G15">
-        <v>1.000636117456318</v>
+        <v>1.0042979</v>
       </c>
       <c r="H15">
-        <v>0.9994752027209357</v>
+        <v>0.98280841</v>
       </c>
       <c r="I15">
-        <v>1.000238545245429</v>
+        <v>0.98280841</v>
       </c>
       <c r="J15">
-        <v>0.999045823055188</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>1.000238545245429</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>1.000238545245429</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>0.9996421841503087</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>0.9996421841503087</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>0.9995865236738511</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>0.9998409711820155</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>0.9998409711820155</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>0.9999403646978691</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>0.9999403646978691</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>0.9999787964947883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999999251937731</v>
+        <v>1.0071278</v>
       </c>
       <c r="D16">
-        <v>1.000002998330656</v>
+        <v>1.0190074</v>
       </c>
       <c r="E16">
-        <v>0.999999251937731</v>
+        <v>0.98431886</v>
       </c>
       <c r="F16">
-        <v>0.999999251937731</v>
+        <v>1.0071278</v>
       </c>
       <c r="G16">
-        <v>0.9999980013179504</v>
+        <v>1.0071278</v>
       </c>
       <c r="H16">
-        <v>1.000001649774266</v>
+        <v>0.9714888399999999</v>
       </c>
       <c r="I16">
-        <v>0.999999251937731</v>
+        <v>0.9714888399999999</v>
       </c>
       <c r="J16">
-        <v>1.000002998330656</v>
+        <v>1.0071278</v>
       </c>
       <c r="K16">
-        <v>0.999999251937731</v>
+        <v>1.0071278</v>
       </c>
       <c r="L16">
-        <v>0.999999251937731</v>
+        <v>1.0071278</v>
       </c>
       <c r="M16">
-        <v>1.000001125134193</v>
+        <v>0.9893083199999999</v>
       </c>
       <c r="N16">
-        <v>1.000001125134193</v>
+        <v>0.9893083199999999</v>
       </c>
       <c r="O16">
-        <v>1.000001300014217</v>
+        <v>0.9876451666666667</v>
       </c>
       <c r="P16">
-        <v>1.000000500735372</v>
+        <v>0.9952481466666665</v>
       </c>
       <c r="Q16">
-        <v>1.000000500735372</v>
+        <v>0.9952481466666665</v>
       </c>
       <c r="R16">
-        <v>1.000000188535962</v>
+        <v>0.9982180599999999</v>
       </c>
       <c r="S16">
-        <v>1.000000188535962</v>
+        <v>0.9982180599999999</v>
       </c>
       <c r="T16">
-        <v>1.000000067539344</v>
+        <v>0.9993664166666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999841186432005</v>
+        <v>1.0080066</v>
       </c>
       <c r="D17">
-        <v>1.000063530678476</v>
+        <v>1.0213509</v>
       </c>
       <c r="E17">
-        <v>0.9999841186432005</v>
+        <v>0.98238547</v>
       </c>
       <c r="F17">
-        <v>0.9999841186432005</v>
+        <v>1.0080066</v>
       </c>
       <c r="G17">
-        <v>0.9999576461324728</v>
+        <v>1.0080066</v>
       </c>
       <c r="H17">
-        <v>1.000034943301783</v>
+        <v>0.9679735900000001</v>
       </c>
       <c r="I17">
-        <v>0.9999841186432005</v>
+        <v>0.9679735900000001</v>
       </c>
       <c r="J17">
-        <v>1.000063530678476</v>
+        <v>1.0080066</v>
       </c>
       <c r="K17">
-        <v>0.9999841186432005</v>
+        <v>1.0080066</v>
       </c>
       <c r="L17">
-        <v>0.9999841186432005</v>
+        <v>1.0080066</v>
       </c>
       <c r="M17">
-        <v>1.000023824660838</v>
+        <v>0.987990095</v>
       </c>
       <c r="N17">
-        <v>1.000023824660838</v>
+        <v>0.987990095</v>
       </c>
       <c r="O17">
-        <v>1.000027530874487</v>
+        <v>0.9861218866666667</v>
       </c>
       <c r="P17">
-        <v>1.000010589321626</v>
+        <v>0.9946622633333334</v>
       </c>
       <c r="Q17">
-        <v>1.000010589321626</v>
+        <v>0.9946622633333334</v>
       </c>
       <c r="R17">
-        <v>1.000003971652019</v>
+        <v>0.9979983475</v>
       </c>
       <c r="S17">
-        <v>1.000003971652019</v>
+        <v>0.9979983475</v>
       </c>
       <c r="T17">
-        <v>1.000001412673722</v>
+        <v>0.9992882933333335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999440803137206</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="D18">
-        <v>1.000223678283378</v>
+        <v>0.9891320578082193</v>
       </c>
       <c r="E18">
-        <v>0.9999440803137206</v>
+        <v>1.00896606260274</v>
       </c>
       <c r="F18">
-        <v>0.9999440803137206</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="G18">
-        <v>0.9998508791399758</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="H18">
-        <v>1.000123024086338</v>
+        <v>1.016301922054794</v>
       </c>
       <c r="I18">
-        <v>0.9999440803137206</v>
+        <v>1.016301922054794</v>
       </c>
       <c r="J18">
-        <v>1.000223678283378</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="K18">
-        <v>0.9999440803137206</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="L18">
-        <v>0.9999440803137206</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="M18">
-        <v>1.00008387929855</v>
+        <v>1.006113221712329</v>
       </c>
       <c r="N18">
-        <v>1.00008387929855</v>
+        <v>1.006113221712329</v>
       </c>
       <c r="O18">
-        <v>1.000096927561146</v>
+        <v>1.007064168675799</v>
       </c>
       <c r="P18">
-        <v>1.00003727963694</v>
+        <v>1.00271698826484</v>
       </c>
       <c r="Q18">
-        <v>1.00003727963694</v>
+        <v>1.00271698826484</v>
       </c>
       <c r="R18">
-        <v>1.000013979806135</v>
+        <v>1.001018871541096</v>
       </c>
       <c r="S18">
-        <v>1.000013979806135</v>
+        <v>1.001018871541096</v>
       </c>
       <c r="T18">
-        <v>1.000004970408476</v>
+        <v>1.000362267762557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998689968232461</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="D19">
-        <v>1.000524011978206</v>
+        <v>1.003787454736842</v>
       </c>
       <c r="E19">
-        <v>0.9998689968232461</v>
+        <v>0.9968753394736846</v>
       </c>
       <c r="F19">
-        <v>0.9998689968232461</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="G19">
-        <v>0.9996506557306095</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="H19">
-        <v>1.000288205237059</v>
+        <v>0.9943188094736841</v>
       </c>
       <c r="I19">
-        <v>0.9998689968232461</v>
+        <v>0.9943188094736841</v>
       </c>
       <c r="J19">
-        <v>1.000524011978206</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="K19">
-        <v>0.9998689968232461</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="L19">
-        <v>0.9998689968232461</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="M19">
-        <v>1.000196504400726</v>
+        <v>0.9978695544736842</v>
       </c>
       <c r="N19">
-        <v>1.000196504400726</v>
+        <v>0.9978695544736842</v>
       </c>
       <c r="O19">
-        <v>1.00022707134617</v>
+        <v>0.9975381494736842</v>
       </c>
       <c r="P19">
-        <v>1.000087335208233</v>
+        <v>0.9990531361403509</v>
       </c>
       <c r="Q19">
-        <v>1.000087335208233</v>
+        <v>0.9990531361403509</v>
       </c>
       <c r="R19">
-        <v>1.000032750611986</v>
+        <v>0.9996449269736842</v>
       </c>
       <c r="S19">
-        <v>1.000032750611986</v>
+        <v>0.9996449269736842</v>
       </c>
       <c r="T19">
-        <v>1.000011643902602</v>
+        <v>0.9998737503508773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="D20">
+        <v>1.006269825263158</v>
+      </c>
+      <c r="E20">
+        <v>0.9948273968421052</v>
+      </c>
+      <c r="F20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="G20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="H20">
+        <v>0.9905952668421051</v>
+      </c>
+      <c r="I20">
+        <v>0.9905952668421051</v>
+      </c>
+      <c r="J20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="K20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="L20">
+        <v>1.002351178421053</v>
+      </c>
+      <c r="M20">
+        <v>0.9964732226315789</v>
+      </c>
+      <c r="N20">
+        <v>0.9964732226315789</v>
+      </c>
+      <c r="O20">
+        <v>0.9959246140350877</v>
+      </c>
+      <c r="P20">
+        <v>0.9984325412280701</v>
+      </c>
+      <c r="Q20">
+        <v>0.9984325412280701</v>
+      </c>
+      <c r="R20">
+        <v>0.9994122005263157</v>
+      </c>
+      <c r="S20">
+        <v>0.9994122005263157</v>
+      </c>
+      <c r="T20">
+        <v>0.9997910040350876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="D21">
+        <v>1.002571405892419</v>
+      </c>
+      <c r="E21">
+        <v>0.9978785790376954</v>
+      </c>
+      <c r="F21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="G21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="H21">
+        <v>0.9961428767317848</v>
+      </c>
+      <c r="I21">
+        <v>0.9961428767317848</v>
+      </c>
+      <c r="J21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="K21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="L21">
+        <v>1.000964278013256</v>
+      </c>
+      <c r="M21">
+        <v>0.9985535773725204</v>
+      </c>
+      <c r="N21">
+        <v>0.9985535773725204</v>
+      </c>
+      <c r="O21">
+        <v>0.9983285779275787</v>
+      </c>
+      <c r="P21">
+        <v>0.9993571442527656</v>
+      </c>
+      <c r="Q21">
+        <v>0.9993571442527656</v>
+      </c>
+      <c r="R21">
+        <v>0.9997589276928882</v>
+      </c>
+      <c r="S21">
+        <v>0.9997589276928882</v>
+      </c>
+      <c r="T21">
+        <v>0.9999142826169446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="D22">
+        <v>1.000636117456318</v>
+      </c>
+      <c r="E22">
+        <v>0.9994752027209357</v>
+      </c>
+      <c r="F22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="G22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="H22">
+        <v>0.999045823055188</v>
+      </c>
+      <c r="I22">
+        <v>0.999045823055188</v>
+      </c>
+      <c r="J22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="K22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="L22">
+        <v>1.000238545245429</v>
+      </c>
+      <c r="M22">
+        <v>0.9996421841503087</v>
+      </c>
+      <c r="N22">
+        <v>0.9996421841503087</v>
+      </c>
+      <c r="O22">
+        <v>0.9995865236738511</v>
+      </c>
+      <c r="P22">
+        <v>0.9998409711820155</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998409711820155</v>
+      </c>
+      <c r="R22">
+        <v>0.9999403646978691</v>
+      </c>
+      <c r="S22">
+        <v>0.9999403646978691</v>
+      </c>
+      <c r="T22">
+        <v>0.9999787964947883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="D23">
+        <v>1.001666685447854</v>
+      </c>
+      <c r="E23">
+        <v>0.9986249893097934</v>
+      </c>
+      <c r="F23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="G23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="H23">
+        <v>0.9974999865328452</v>
+      </c>
+      <c r="I23">
+        <v>0.9974999865328452</v>
+      </c>
+      <c r="J23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="K23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="L23">
+        <v>1.000625009638419</v>
+      </c>
+      <c r="M23">
+        <v>0.999062498085632</v>
+      </c>
+      <c r="N23">
+        <v>0.999062498085632</v>
+      </c>
+      <c r="O23">
+        <v>0.998916661827019</v>
+      </c>
+      <c r="P23">
+        <v>0.9995833352698943</v>
+      </c>
+      <c r="Q23">
+        <v>0.9995833352698943</v>
+      </c>
+      <c r="R23">
+        <v>0.9998437538620254</v>
+      </c>
+      <c r="S23">
+        <v>0.9998437538620254</v>
+      </c>
+      <c r="T23">
+        <v>0.999944448367625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="D24">
+        <v>1.000425165769706</v>
+      </c>
+      <c r="E24">
+        <v>0.9996492393434698</v>
+      </c>
+      <c r="F24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="G24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="H24">
+        <v>0.9993622592357381</v>
+      </c>
+      <c r="I24">
+        <v>0.9993622592357381</v>
+      </c>
+      <c r="J24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="K24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="L24">
+        <v>1.000159433330617</v>
+      </c>
+      <c r="M24">
+        <v>0.9997608462831774</v>
+      </c>
+      <c r="N24">
+        <v>0.9997608462831774</v>
+      </c>
+      <c r="O24">
+        <v>0.9997236439699416</v>
+      </c>
+      <c r="P24">
+        <v>0.999893708632324</v>
+      </c>
+      <c r="Q24">
+        <v>0.999893708632324</v>
+      </c>
+      <c r="R24">
+        <v>0.9999601398068971</v>
+      </c>
+      <c r="S24">
+        <v>0.9999601398068971</v>
+      </c>
+      <c r="T24">
+        <v>0.9999858273901273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="D25">
+        <v>1.009720408641882</v>
+      </c>
+      <c r="E25">
+        <v>0.991980665190564</v>
+      </c>
+      <c r="F25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="G25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="H25">
+        <v>0.9854193936374034</v>
+      </c>
+      <c r="I25">
+        <v>0.9854193936374034</v>
+      </c>
+      <c r="J25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="K25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="L25">
+        <v>1.003645159599657</v>
+      </c>
+      <c r="M25">
+        <v>0.9945322766185301</v>
+      </c>
+      <c r="N25">
+        <v>0.9945322766185301</v>
+      </c>
+      <c r="O25">
+        <v>0.9936817394758748</v>
+      </c>
+      <c r="P25">
+        <v>0.9975699042789056</v>
+      </c>
+      <c r="Q25">
+        <v>0.9975699042789056</v>
+      </c>
+      <c r="R25">
+        <v>0.9990887181090934</v>
+      </c>
+      <c r="S25">
+        <v>0.9990887181090934</v>
+      </c>
+      <c r="T25">
+        <v>0.9996759910448034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="D26">
+        <v>1.002547786015201</v>
+      </c>
+      <c r="E26">
+        <v>0.9978980777150384</v>
+      </c>
+      <c r="F26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="G26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="H26">
+        <v>0.9961783231126807</v>
+      </c>
+      <c r="I26">
+        <v>0.9961783231126807</v>
+      </c>
+      <c r="J26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="K26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="L26">
+        <v>1.000955425888141</v>
+      </c>
+      <c r="M26">
+        <v>0.9985668745004108</v>
+      </c>
+      <c r="N26">
+        <v>0.9985668745004108</v>
+      </c>
+      <c r="O26">
+        <v>0.9983439422386201</v>
+      </c>
+      <c r="P26">
+        <v>0.9993630582963209</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993630582963209</v>
+      </c>
+      <c r="R26">
+        <v>0.9997611501942759</v>
+      </c>
+      <c r="S26">
+        <v>0.9997611501942759</v>
+      </c>
+      <c r="T26">
+        <v>0.9999150774178905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="D27">
+        <v>0.9982234307003733</v>
+      </c>
+      <c r="E27">
+        <v>1.001465690901298</v>
+      </c>
+      <c r="F27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="G27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="H27">
+        <v>1.002664849546649</v>
+      </c>
+      <c r="I27">
+        <v>1.002664849546649</v>
+      </c>
+      <c r="J27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="K27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="L27">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="M27">
+        <v>1.000999312564947</v>
+      </c>
+      <c r="N27">
+        <v>1.000999312564947</v>
+      </c>
+      <c r="O27">
+        <v>1.001154772010397</v>
+      </c>
+      <c r="P27">
+        <v>1.000444133571046</v>
+      </c>
+      <c r="Q27">
+        <v>1.000444133571046</v>
+      </c>
+      <c r="R27">
+        <v>1.000166544074096</v>
+      </c>
+      <c r="S27">
+        <v>1.000166544074096</v>
+      </c>
+      <c r="T27">
+        <v>1.000059216316343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="D28">
+        <v>1.002063056001905</v>
+      </c>
+      <c r="E28">
+        <v>0.9982979870266061</v>
+      </c>
+      <c r="F28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="G28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="H28">
+        <v>0.9969054367781239</v>
+      </c>
+      <c r="I28">
+        <v>0.9969054367781239</v>
+      </c>
+      <c r="J28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="K28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="L28">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="M28">
+        <v>0.9988395359649145</v>
+      </c>
+      <c r="N28">
+        <v>0.9988395359649145</v>
+      </c>
+      <c r="O28">
+        <v>0.9986590196521451</v>
+      </c>
+      <c r="P28">
+        <v>0.9994842356938447</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994842356938447</v>
+      </c>
+      <c r="R28">
+        <v>0.9998065855583098</v>
+      </c>
+      <c r="S28">
+        <v>0.9998065855583098</v>
+      </c>
+      <c r="T28">
+        <v>0.9999312308769585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="D29">
+        <v>1.007430888954413</v>
+      </c>
+      <c r="E29">
+        <v>0.9938695251517311</v>
+      </c>
+      <c r="F29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="G29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="H29">
+        <v>0.9888536969460807</v>
+      </c>
+      <c r="I29">
+        <v>0.9888536969460807</v>
+      </c>
+      <c r="J29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="K29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="L29">
+        <v>1.002786573709439</v>
+      </c>
+      <c r="M29">
+        <v>0.99582013532776</v>
+      </c>
+      <c r="N29">
+        <v>0.99582013532776</v>
+      </c>
+      <c r="O29">
+        <v>0.9951699319357504</v>
+      </c>
+      <c r="P29">
+        <v>0.9981422814549865</v>
+      </c>
+      <c r="Q29">
+        <v>0.9981422814549865</v>
+      </c>
+      <c r="R29">
+        <v>0.9993033545185998</v>
+      </c>
+      <c r="S29">
+        <v>0.9993033545185998</v>
+      </c>
+      <c r="T29">
+        <v>0.999752305363424</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="D4">
-        <v>1.002611608044971</v>
+        <v>0.9956578992361264</v>
       </c>
       <c r="E4">
-        <v>0.997845423945888</v>
+        <v>1.003582234635678</v>
       </c>
       <c r="F4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="G4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="H4">
-        <v>0.9960825867260317</v>
+        <v>1.00651315193226</v>
       </c>
       <c r="I4">
-        <v>0.9960825867260317</v>
+        <v>1.00651315193226</v>
       </c>
       <c r="J4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="K4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="L4">
-        <v>1.000979356467108</v>
+        <v>0.9983717133892238</v>
       </c>
       <c r="M4">
-        <v>0.9985309715965698</v>
+        <v>1.002442432660742</v>
       </c>
       <c r="N4">
-        <v>0.9985309715965698</v>
+        <v>1.002442432660742</v>
       </c>
       <c r="O4">
-        <v>0.9983024557130092</v>
+        <v>1.002822366652387</v>
       </c>
       <c r="P4">
-        <v>0.9993470998867492</v>
+        <v>1.001085526236903</v>
       </c>
       <c r="Q4">
-        <v>0.9993470998867492</v>
+        <v>1.001085526236903</v>
       </c>
       <c r="R4">
-        <v>0.9997551640318388</v>
+        <v>1.000407073024983</v>
       </c>
       <c r="S4">
-        <v>0.9997551640318388</v>
+        <v>1.000407073024983</v>
       </c>
       <c r="T4">
-        <v>0.9999129480197023</v>
+        <v>1.000144737661956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="D5">
-        <v>0.9950873719668584</v>
+        <v>1.009026635603845</v>
       </c>
       <c r="E5">
-        <v>1.004052920893369</v>
+        <v>0.992553024790758</v>
       </c>
       <c r="F5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="G5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="H5">
-        <v>1.007368943393371</v>
+        <v>0.9864600498725593</v>
       </c>
       <c r="I5">
-        <v>1.007368943393371</v>
+        <v>0.9864600498725593</v>
       </c>
       <c r="J5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="K5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="L5">
-        <v>0.9981577655907797</v>
+        <v>1.003384981803076</v>
       </c>
       <c r="M5">
-        <v>1.002763354492075</v>
+        <v>0.9949225158378179</v>
       </c>
       <c r="N5">
-        <v>1.002763354492075</v>
+        <v>0.9949225158378179</v>
       </c>
       <c r="O5">
-        <v>1.003193209959173</v>
+        <v>0.9941326854887979</v>
       </c>
       <c r="P5">
-        <v>1.001228158191643</v>
+        <v>0.9977433378262374</v>
       </c>
       <c r="Q5">
-        <v>1.001228158191643</v>
+        <v>0.9977433378262374</v>
       </c>
       <c r="R5">
-        <v>1.000460560041427</v>
+        <v>0.9991537488204472</v>
       </c>
       <c r="S5">
-        <v>1.000460560041427</v>
+        <v>0.9991537488204472</v>
       </c>
       <c r="T5">
-        <v>1.000163755504323</v>
+        <v>0.9996991092793985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="D6">
-        <v>0.9830003315030313</v>
+        <v>1.002611608044971</v>
       </c>
       <c r="E6">
-        <v>1.014024748843248</v>
+        <v>0.997845423945888</v>
       </c>
       <c r="F6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="G6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="H6">
-        <v>1.025499510959263</v>
+        <v>0.9960825867260317</v>
       </c>
       <c r="I6">
-        <v>1.025499510959263</v>
+        <v>0.9960825867260317</v>
       </c>
       <c r="J6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="K6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="L6">
-        <v>0.9936251254377307</v>
+        <v>1.000979356467108</v>
       </c>
       <c r="M6">
-        <v>1.009562318198497</v>
+        <v>0.9985309715965698</v>
       </c>
       <c r="N6">
-        <v>1.009562318198497</v>
+        <v>0.9985309715965698</v>
       </c>
       <c r="O6">
-        <v>1.011049795080081</v>
+        <v>0.9983024557130092</v>
       </c>
       <c r="P6">
-        <v>1.004249920611575</v>
+        <v>0.9993470998867492</v>
       </c>
       <c r="Q6">
-        <v>1.004249920611575</v>
+        <v>0.9993470998867492</v>
       </c>
       <c r="R6">
-        <v>1.001593721818114</v>
+        <v>0.9997551640318388</v>
       </c>
       <c r="S6">
-        <v>1.001593721818114</v>
+        <v>0.9997551640318388</v>
       </c>
       <c r="T6">
-        <v>1.000566661269789</v>
+        <v>0.9999129480197023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="D7">
-        <v>0.9995176561519995</v>
+        <v>0.9950873719668584</v>
       </c>
       <c r="E7">
-        <v>1.000397935333121</v>
+        <v>1.004052920893369</v>
       </c>
       <c r="F7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="G7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="H7">
-        <v>1.000723516135122</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="I7">
-        <v>1.000723516135122</v>
+        <v>1.007368943393371</v>
       </c>
       <c r="J7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="K7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="L7">
-        <v>0.9998191223496863</v>
+        <v>0.9981577655907797</v>
       </c>
       <c r="M7">
-        <v>1.000271319242404</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="N7">
-        <v>1.000271319242404</v>
+        <v>1.002763354492075</v>
       </c>
       <c r="O7">
-        <v>1.000313524605976</v>
+        <v>1.003193209959173</v>
       </c>
       <c r="P7">
-        <v>1.000120586944832</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="Q7">
-        <v>1.000120586944832</v>
+        <v>1.001228158191643</v>
       </c>
       <c r="R7">
-        <v>1.000045220796045</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="S7">
-        <v>1.000045220796045</v>
+        <v>1.000460560041427</v>
       </c>
       <c r="T7">
-        <v>1.00001607911155</v>
+        <v>1.000163755504323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="D8">
-        <v>0.9999576461324727</v>
+        <v>0.9830003315030313</v>
       </c>
       <c r="E8">
-        <v>1.000034943301783</v>
+        <v>1.014024748843248</v>
       </c>
       <c r="F8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="G8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="H8">
-        <v>1.000063530678476</v>
+        <v>1.025499510959263</v>
       </c>
       <c r="I8">
-        <v>1.000063530678476</v>
+        <v>1.025499510959263</v>
       </c>
       <c r="J8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="K8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="L8">
-        <v>0.9999841186432005</v>
+        <v>0.9936251254377307</v>
       </c>
       <c r="M8">
-        <v>1.000023824660838</v>
+        <v>1.009562318198497</v>
       </c>
       <c r="N8">
-        <v>1.000023824660838</v>
+        <v>1.009562318198497</v>
       </c>
       <c r="O8">
-        <v>1.000027530874487</v>
+        <v>1.011049795080081</v>
       </c>
       <c r="P8">
-        <v>1.000010589321626</v>
+        <v>1.004249920611575</v>
       </c>
       <c r="Q8">
-        <v>1.000010589321626</v>
+        <v>1.004249920611575</v>
       </c>
       <c r="R8">
-        <v>1.000003971652019</v>
+        <v>1.001593721818114</v>
       </c>
       <c r="S8">
-        <v>1.000003971652019</v>
+        <v>1.001593721818114</v>
       </c>
       <c r="T8">
-        <v>1.000001412673722</v>
+        <v>1.000566661269789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="D9">
-        <v>0.9990650158641842</v>
+        <v>0.9995176561519995</v>
       </c>
       <c r="E9">
-        <v>1.000771364170159</v>
+        <v>1.000397935333121</v>
       </c>
       <c r="F9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="G9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="H9">
-        <v>1.001402477333158</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="I9">
-        <v>1.001402477333158</v>
+        <v>1.000723516135122</v>
       </c>
       <c r="J9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="K9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="L9">
-        <v>0.999649383481052</v>
+        <v>0.9998191223496863</v>
       </c>
       <c r="M9">
-        <v>1.000525930407105</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="N9">
-        <v>1.000525930407105</v>
+        <v>1.000271319242404</v>
       </c>
       <c r="O9">
-        <v>1.000607741661456</v>
+        <v>1.000313524605976</v>
       </c>
       <c r="P9">
-        <v>1.00023374809842</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="Q9">
-        <v>1.00023374809842</v>
+        <v>1.000120586944832</v>
       </c>
       <c r="R9">
-        <v>1.000087656944078</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="S9">
-        <v>1.000087656944078</v>
+        <v>1.000045220796045</v>
       </c>
       <c r="T9">
-        <v>1.000031167968443</v>
+        <v>1.00001607911155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="D10">
-        <v>0.9827469796790326</v>
+        <v>0.9999576461324727</v>
       </c>
       <c r="E10">
-        <v>1.014233764495541</v>
+        <v>1.000034943301783</v>
       </c>
       <c r="F10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="G10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="H10">
-        <v>1.025879539848777</v>
+        <v>1.000063530678476</v>
       </c>
       <c r="I10">
-        <v>1.025879539848777</v>
+        <v>1.000063530678476</v>
       </c>
       <c r="J10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="K10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="L10">
-        <v>0.993530118443958</v>
+        <v>0.9999841186432005</v>
       </c>
       <c r="M10">
-        <v>1.009704829146367</v>
+        <v>1.000023824660838</v>
       </c>
       <c r="N10">
-        <v>1.009704829146367</v>
+        <v>1.000023824660838</v>
       </c>
       <c r="O10">
-        <v>1.011214474262758</v>
+        <v>1.000027530874487</v>
       </c>
       <c r="P10">
-        <v>1.004313258912231</v>
+        <v>1.000010589321626</v>
       </c>
       <c r="Q10">
-        <v>1.004313258912231</v>
+        <v>1.000010589321626</v>
       </c>
       <c r="R10">
-        <v>1.001617473795163</v>
+        <v>1.000003971652019</v>
       </c>
       <c r="S10">
-        <v>1.001617473795163</v>
+        <v>1.000003971652019</v>
       </c>
       <c r="T10">
-        <v>1.000575106559204</v>
+        <v>1.000001412673722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="D11">
-        <v>1.001057353678831</v>
+        <v>0.9990650158641842</v>
       </c>
       <c r="E11">
-        <v>0.9991276853559338</v>
+        <v>1.000771364170159</v>
       </c>
       <c r="F11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="G11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="H11">
-        <v>0.9984139701064446</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="I11">
-        <v>0.9984139701064446</v>
+        <v>1.001402477333158</v>
       </c>
       <c r="J11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="K11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="L11">
-        <v>1.000396511473862</v>
+        <v>0.999649383481052</v>
       </c>
       <c r="M11">
-        <v>0.9994052407901532</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="N11">
-        <v>0.9994052407901532</v>
+        <v>1.000525930407105</v>
       </c>
       <c r="O11">
-        <v>0.9993127223120801</v>
+        <v>1.000607741661456</v>
       </c>
       <c r="P11">
-        <v>0.9997356643513896</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="Q11">
-        <v>0.9997356643513896</v>
+        <v>1.00023374809842</v>
       </c>
       <c r="R11">
-        <v>0.9999008761320076</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="S11">
-        <v>0.9999008761320076</v>
+        <v>1.000087656944078</v>
       </c>
       <c r="T11">
-        <v>0.9999647572604661</v>
+        <v>1.000031167968443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="D12">
-        <v>0.9949155400736841</v>
+        <v>0.9827469796790326</v>
       </c>
       <c r="E12">
-        <v>1.004194683810526</v>
+        <v>1.014233764495541</v>
       </c>
       <c r="F12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="G12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="H12">
-        <v>1.007626694410527</v>
+        <v>1.025879539848777</v>
       </c>
       <c r="I12">
-        <v>1.007626694410527</v>
+        <v>1.025879539848777</v>
       </c>
       <c r="J12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="K12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="L12">
-        <v>0.9980933279789459</v>
+        <v>0.993530118443958</v>
       </c>
       <c r="M12">
-        <v>1.002860011194736</v>
+        <v>1.009704829146367</v>
       </c>
       <c r="N12">
-        <v>1.002860011194736</v>
+        <v>1.009704829146367</v>
       </c>
       <c r="O12">
-        <v>1.003304902066666</v>
+        <v>1.011214474262758</v>
       </c>
       <c r="P12">
-        <v>1.001271116789473</v>
+        <v>1.004313258912231</v>
       </c>
       <c r="Q12">
-        <v>1.001271116789473</v>
+        <v>1.004313258912231</v>
       </c>
       <c r="R12">
-        <v>1.000476669586841</v>
+        <v>1.001617473795163</v>
       </c>
       <c r="S12">
-        <v>1.000476669586841</v>
+        <v>1.001617473795163</v>
       </c>
       <c r="T12">
-        <v>1.000169483705262</v>
+        <v>1.000575106559204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="D13">
-        <v>1.003393220618471</v>
+        <v>1.001057353678831</v>
       </c>
       <c r="E13">
-        <v>0.9972005960041864</v>
+        <v>0.9991276853559338</v>
       </c>
       <c r="F13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="G13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="H13">
-        <v>0.9949101736426418</v>
+        <v>0.9984139701064446</v>
       </c>
       <c r="I13">
-        <v>0.9949101736426418</v>
+        <v>0.9984139701064446</v>
       </c>
       <c r="J13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="K13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="L13">
-        <v>1.00127245835877</v>
+        <v>1.000396511473862</v>
       </c>
       <c r="M13">
-        <v>0.998091316000706</v>
+        <v>0.9994052407901532</v>
       </c>
       <c r="N13">
-        <v>0.998091316000706</v>
+        <v>0.9994052407901532</v>
       </c>
       <c r="O13">
-        <v>0.9977944093351995</v>
+        <v>0.9993127223120801</v>
       </c>
       <c r="P13">
-        <v>0.9991516967867273</v>
+        <v>0.9997356643513896</v>
       </c>
       <c r="Q13">
-        <v>0.9991516967867273</v>
+        <v>0.9997356643513896</v>
       </c>
       <c r="R13">
-        <v>0.999681887179738</v>
+        <v>0.9999008761320076</v>
       </c>
       <c r="S13">
-        <v>0.999681887179738</v>
+        <v>0.9999008761320076</v>
       </c>
       <c r="T13">
-        <v>0.9998868942236016</v>
+        <v>0.9999647572604661</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="D14">
-        <v>0.9701918100000013</v>
+        <v>0.9949155400736841</v>
       </c>
       <c r="E14">
-        <v>1.024591800000001</v>
+        <v>1.004194683810526</v>
       </c>
       <c r="F14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="G14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="H14">
-        <v>1.0447123</v>
+        <v>1.007626694410527</v>
       </c>
       <c r="I14">
-        <v>1.0447123</v>
+        <v>1.007626694410527</v>
       </c>
       <c r="J14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="K14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="L14">
-        <v>0.98882193</v>
+        <v>0.9980933279789459</v>
       </c>
       <c r="M14">
-        <v>1.016767115</v>
+        <v>1.002860011194736</v>
       </c>
       <c r="N14">
-        <v>1.016767115</v>
+        <v>1.002860011194736</v>
       </c>
       <c r="O14">
-        <v>1.019375343333334</v>
+        <v>1.003304902066666</v>
       </c>
       <c r="P14">
-        <v>1.007452053333333</v>
+        <v>1.001271116789473</v>
       </c>
       <c r="Q14">
-        <v>1.007452053333333</v>
+        <v>1.001271116789473</v>
       </c>
       <c r="R14">
-        <v>1.0027945225</v>
+        <v>1.000476669586841</v>
       </c>
       <c r="S14">
-        <v>1.0027945225</v>
+        <v>1.000476669586841</v>
       </c>
       <c r="T14">
-        <v>1.000993616666667</v>
+        <v>1.000169483705262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="D15">
-        <v>1.0114611</v>
+        <v>1.003393220618471</v>
       </c>
       <c r="E15">
-        <v>0.99054463</v>
+        <v>0.9972005960041864</v>
       </c>
       <c r="F15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="G15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="H15">
-        <v>0.98280841</v>
+        <v>0.9949101736426418</v>
       </c>
       <c r="I15">
-        <v>0.98280841</v>
+        <v>0.9949101736426418</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>1.00127245835877</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>0.998091316000706</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>0.998091316000706</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>0.9977944093351995</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>0.9991516967867273</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>0.9991516967867273</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>0.999681887179738</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>0.999681887179738</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>0.9998868942236016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="D16">
-        <v>1.0190074</v>
+        <v>0.9701918100000013</v>
       </c>
       <c r="E16">
-        <v>0.98431886</v>
+        <v>1.024591800000001</v>
       </c>
       <c r="F16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="G16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="H16">
-        <v>0.9714888399999999</v>
+        <v>1.0447123</v>
       </c>
       <c r="I16">
-        <v>0.9714888399999999</v>
+        <v>1.0447123</v>
       </c>
       <c r="J16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="K16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="L16">
-        <v>1.0071278</v>
+        <v>0.98882193</v>
       </c>
       <c r="M16">
-        <v>0.9893083199999999</v>
+        <v>1.016767115</v>
       </c>
       <c r="N16">
-        <v>0.9893083199999999</v>
+        <v>1.016767115</v>
       </c>
       <c r="O16">
-        <v>0.9876451666666667</v>
+        <v>1.019375343333334</v>
       </c>
       <c r="P16">
-        <v>0.9952481466666665</v>
+        <v>1.007452053333333</v>
       </c>
       <c r="Q16">
-        <v>0.9952481466666665</v>
+        <v>1.007452053333333</v>
       </c>
       <c r="R16">
-        <v>0.9982180599999999</v>
+        <v>1.0027945225</v>
       </c>
       <c r="S16">
-        <v>0.9982180599999999</v>
+        <v>1.0027945225</v>
       </c>
       <c r="T16">
-        <v>0.9993664166666666</v>
+        <v>1.000993616666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>1.0213509</v>
+        <v>1.0114611</v>
       </c>
       <c r="E17">
-        <v>0.98238547</v>
+        <v>0.99054463</v>
       </c>
       <c r="F17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="G17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="H17">
-        <v>0.9679735900000001</v>
+        <v>0.98280841</v>
       </c>
       <c r="I17">
-        <v>0.9679735900000001</v>
+        <v>0.98280841</v>
       </c>
       <c r="J17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0080066</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.987990095</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.987990095</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.9861218866666667</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9946622633333334</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9946622633333334</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.9979983475</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.9979983475</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9992882933333335</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="D18">
-        <v>0.9891320578082193</v>
+        <v>1.0190074</v>
       </c>
       <c r="E18">
-        <v>1.00896606260274</v>
+        <v>0.98431886</v>
       </c>
       <c r="F18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="G18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="H18">
-        <v>1.016301922054794</v>
+        <v>0.9714888399999999</v>
       </c>
       <c r="I18">
-        <v>1.016301922054794</v>
+        <v>0.9714888399999999</v>
       </c>
       <c r="J18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="K18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="L18">
-        <v>0.9959245213698635</v>
+        <v>1.0071278</v>
       </c>
       <c r="M18">
-        <v>1.006113221712329</v>
+        <v>0.9893083199999999</v>
       </c>
       <c r="N18">
-        <v>1.006113221712329</v>
+        <v>0.9893083199999999</v>
       </c>
       <c r="O18">
-        <v>1.007064168675799</v>
+        <v>0.9876451666666667</v>
       </c>
       <c r="P18">
-        <v>1.00271698826484</v>
+        <v>0.9952481466666665</v>
       </c>
       <c r="Q18">
-        <v>1.00271698826484</v>
+        <v>0.9952481466666665</v>
       </c>
       <c r="R18">
-        <v>1.001018871541096</v>
+        <v>0.9982180599999999</v>
       </c>
       <c r="S18">
-        <v>1.001018871541096</v>
+        <v>0.9982180599999999</v>
       </c>
       <c r="T18">
-        <v>1.000362267762557</v>
+        <v>0.9993664166666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="D19">
-        <v>1.003787454736842</v>
+        <v>1.0213509</v>
       </c>
       <c r="E19">
-        <v>0.9968753394736846</v>
+        <v>0.98238547</v>
       </c>
       <c r="F19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="G19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="H19">
-        <v>0.9943188094736841</v>
+        <v>0.9679735900000001</v>
       </c>
       <c r="I19">
-        <v>0.9943188094736841</v>
+        <v>0.9679735900000001</v>
       </c>
       <c r="J19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="K19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="L19">
-        <v>1.001420299473684</v>
+        <v>1.0080066</v>
       </c>
       <c r="M19">
-        <v>0.9978695544736842</v>
+        <v>0.987990095</v>
       </c>
       <c r="N19">
-        <v>0.9978695544736842</v>
+        <v>0.987990095</v>
       </c>
       <c r="O19">
-        <v>0.9975381494736842</v>
+        <v>0.9861218866666667</v>
       </c>
       <c r="P19">
-        <v>0.9990531361403509</v>
+        <v>0.9946622633333334</v>
       </c>
       <c r="Q19">
-        <v>0.9990531361403509</v>
+        <v>0.9946622633333334</v>
       </c>
       <c r="R19">
-        <v>0.9996449269736842</v>
+        <v>0.9979983475</v>
       </c>
       <c r="S19">
-        <v>0.9996449269736842</v>
+        <v>0.9979983475</v>
       </c>
       <c r="T19">
-        <v>0.9998737503508773</v>
+        <v>0.9992882933333335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="D20">
-        <v>1.006269825263158</v>
+        <v>0.9891320578082193</v>
       </c>
       <c r="E20">
-        <v>0.9948273968421052</v>
+        <v>1.00896606260274</v>
       </c>
       <c r="F20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="G20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="H20">
-        <v>0.9905952668421051</v>
+        <v>1.016301922054794</v>
       </c>
       <c r="I20">
-        <v>0.9905952668421051</v>
+        <v>1.016301922054794</v>
       </c>
       <c r="J20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="K20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="L20">
-        <v>1.002351178421053</v>
+        <v>0.9959245213698635</v>
       </c>
       <c r="M20">
-        <v>0.9964732226315789</v>
+        <v>1.006113221712329</v>
       </c>
       <c r="N20">
-        <v>0.9964732226315789</v>
+        <v>1.006113221712329</v>
       </c>
       <c r="O20">
-        <v>0.9959246140350877</v>
+        <v>1.007064168675799</v>
       </c>
       <c r="P20">
-        <v>0.9984325412280701</v>
+        <v>1.00271698826484</v>
       </c>
       <c r="Q20">
-        <v>0.9984325412280701</v>
+        <v>1.00271698826484</v>
       </c>
       <c r="R20">
-        <v>0.9994122005263157</v>
+        <v>1.001018871541096</v>
       </c>
       <c r="S20">
-        <v>0.9994122005263157</v>
+        <v>1.001018871541096</v>
       </c>
       <c r="T20">
-        <v>0.9997910040350876</v>
+        <v>1.000362267762557</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="D21">
-        <v>1.002571405892419</v>
+        <v>1.003787454736842</v>
       </c>
       <c r="E21">
-        <v>0.9978785790376954</v>
+        <v>0.9968753394736846</v>
       </c>
       <c r="F21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="G21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="H21">
-        <v>0.9961428767317848</v>
+        <v>0.9943188094736841</v>
       </c>
       <c r="I21">
-        <v>0.9961428767317848</v>
+        <v>0.9943188094736841</v>
       </c>
       <c r="J21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="K21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="L21">
-        <v>1.000964278013256</v>
+        <v>1.001420299473684</v>
       </c>
       <c r="M21">
-        <v>0.9985535773725204</v>
+        <v>0.9978695544736842</v>
       </c>
       <c r="N21">
-        <v>0.9985535773725204</v>
+        <v>0.9978695544736842</v>
       </c>
       <c r="O21">
-        <v>0.9983285779275787</v>
+        <v>0.9975381494736842</v>
       </c>
       <c r="P21">
-        <v>0.9993571442527656</v>
+        <v>0.9990531361403509</v>
       </c>
       <c r="Q21">
-        <v>0.9993571442527656</v>
+        <v>0.9990531361403509</v>
       </c>
       <c r="R21">
-        <v>0.9997589276928882</v>
+        <v>0.9996449269736842</v>
       </c>
       <c r="S21">
-        <v>0.9997589276928882</v>
+        <v>0.9996449269736842</v>
       </c>
       <c r="T21">
-        <v>0.9999142826169446</v>
+        <v>0.9998737503508773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="D22">
-        <v>1.000636117456318</v>
+        <v>1.006269825263158</v>
       </c>
       <c r="E22">
-        <v>0.9994752027209357</v>
+        <v>0.9948273968421052</v>
       </c>
       <c r="F22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="G22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="H22">
-        <v>0.999045823055188</v>
+        <v>0.9905952668421051</v>
       </c>
       <c r="I22">
-        <v>0.999045823055188</v>
+        <v>0.9905952668421051</v>
       </c>
       <c r="J22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="K22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="L22">
-        <v>1.000238545245429</v>
+        <v>1.002351178421053</v>
       </c>
       <c r="M22">
-        <v>0.9996421841503087</v>
+        <v>0.9964732226315789</v>
       </c>
       <c r="N22">
-        <v>0.9996421841503087</v>
+        <v>0.9964732226315789</v>
       </c>
       <c r="O22">
-        <v>0.9995865236738511</v>
+        <v>0.9959246140350877</v>
       </c>
       <c r="P22">
-        <v>0.9998409711820155</v>
+        <v>0.9984325412280701</v>
       </c>
       <c r="Q22">
-        <v>0.9998409711820155</v>
+        <v>0.9984325412280701</v>
       </c>
       <c r="R22">
-        <v>0.9999403646978691</v>
+        <v>0.9994122005263157</v>
       </c>
       <c r="S22">
-        <v>0.9999403646978691</v>
+        <v>0.9994122005263157</v>
       </c>
       <c r="T22">
-        <v>0.9999787964947883</v>
+        <v>0.9997910040350876</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="D23">
-        <v>1.001666685447854</v>
+        <v>1.002571405892419</v>
       </c>
       <c r="E23">
-        <v>0.9986249893097934</v>
+        <v>0.9978785790376954</v>
       </c>
       <c r="F23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="G23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="H23">
-        <v>0.9974999865328452</v>
+        <v>0.9961428767317848</v>
       </c>
       <c r="I23">
-        <v>0.9974999865328452</v>
+        <v>0.9961428767317848</v>
       </c>
       <c r="J23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="K23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="L23">
-        <v>1.000625009638419</v>
+        <v>1.000964278013256</v>
       </c>
       <c r="M23">
-        <v>0.999062498085632</v>
+        <v>0.9985535773725204</v>
       </c>
       <c r="N23">
-        <v>0.999062498085632</v>
+        <v>0.9985535773725204</v>
       </c>
       <c r="O23">
-        <v>0.998916661827019</v>
+        <v>0.9983285779275787</v>
       </c>
       <c r="P23">
-        <v>0.9995833352698943</v>
+        <v>0.9993571442527656</v>
       </c>
       <c r="Q23">
-        <v>0.9995833352698943</v>
+        <v>0.9993571442527656</v>
       </c>
       <c r="R23">
-        <v>0.9998437538620254</v>
+        <v>0.9997589276928882</v>
       </c>
       <c r="S23">
-        <v>0.9998437538620254</v>
+        <v>0.9997589276928882</v>
       </c>
       <c r="T23">
-        <v>0.999944448367625</v>
+        <v>0.9999142826169446</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="D24">
-        <v>1.000425165769706</v>
+        <v>1.000636117456318</v>
       </c>
       <c r="E24">
-        <v>0.9996492393434698</v>
+        <v>0.9994752027209357</v>
       </c>
       <c r="F24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="G24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="H24">
-        <v>0.9993622592357381</v>
+        <v>0.999045823055188</v>
       </c>
       <c r="I24">
-        <v>0.9993622592357381</v>
+        <v>0.999045823055188</v>
       </c>
       <c r="J24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="K24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="L24">
-        <v>1.000159433330617</v>
+        <v>1.000238545245429</v>
       </c>
       <c r="M24">
-        <v>0.9997608462831774</v>
+        <v>0.9996421841503087</v>
       </c>
       <c r="N24">
-        <v>0.9997608462831774</v>
+        <v>0.9996421841503087</v>
       </c>
       <c r="O24">
-        <v>0.9997236439699416</v>
+        <v>0.9995865236738511</v>
       </c>
       <c r="P24">
-        <v>0.999893708632324</v>
+        <v>0.9998409711820155</v>
       </c>
       <c r="Q24">
-        <v>0.999893708632324</v>
+        <v>0.9998409711820155</v>
       </c>
       <c r="R24">
-        <v>0.9999601398068971</v>
+        <v>0.9999403646978691</v>
       </c>
       <c r="S24">
-        <v>0.9999601398068971</v>
+        <v>0.9999403646978691</v>
       </c>
       <c r="T24">
-        <v>0.9999858273901273</v>
+        <v>0.9999787964947883</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="D25">
-        <v>1.009720408641882</v>
+        <v>1.001666685447854</v>
       </c>
       <c r="E25">
-        <v>0.991980665190564</v>
+        <v>0.9986249893097934</v>
       </c>
       <c r="F25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="G25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="H25">
-        <v>0.9854193936374034</v>
+        <v>0.9974999865328452</v>
       </c>
       <c r="I25">
-        <v>0.9854193936374034</v>
+        <v>0.9974999865328452</v>
       </c>
       <c r="J25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="K25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="L25">
-        <v>1.003645159599657</v>
+        <v>1.000625009638419</v>
       </c>
       <c r="M25">
-        <v>0.9945322766185301</v>
+        <v>0.999062498085632</v>
       </c>
       <c r="N25">
-        <v>0.9945322766185301</v>
+        <v>0.999062498085632</v>
       </c>
       <c r="O25">
-        <v>0.9936817394758748</v>
+        <v>0.998916661827019</v>
       </c>
       <c r="P25">
-        <v>0.9975699042789056</v>
+        <v>0.9995833352698943</v>
       </c>
       <c r="Q25">
-        <v>0.9975699042789056</v>
+        <v>0.9995833352698943</v>
       </c>
       <c r="R25">
-        <v>0.9990887181090934</v>
+        <v>0.9998437538620254</v>
       </c>
       <c r="S25">
-        <v>0.9990887181090934</v>
+        <v>0.9998437538620254</v>
       </c>
       <c r="T25">
-        <v>0.9996759910448034</v>
+        <v>0.999944448367625</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="D26">
-        <v>1.002547786015201</v>
+        <v>1.000425165769706</v>
       </c>
       <c r="E26">
-        <v>0.9978980777150384</v>
+        <v>0.9996492393434698</v>
       </c>
       <c r="F26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="G26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="H26">
-        <v>0.9961783231126807</v>
+        <v>0.9993622592357381</v>
       </c>
       <c r="I26">
-        <v>0.9961783231126807</v>
+        <v>0.9993622592357381</v>
       </c>
       <c r="J26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="K26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="L26">
-        <v>1.000955425888141</v>
+        <v>1.000159433330617</v>
       </c>
       <c r="M26">
-        <v>0.9985668745004108</v>
+        <v>0.9997608462831774</v>
       </c>
       <c r="N26">
-        <v>0.9985668745004108</v>
+        <v>0.9997608462831774</v>
       </c>
       <c r="O26">
-        <v>0.9983439422386201</v>
+        <v>0.9997236439699416</v>
       </c>
       <c r="P26">
-        <v>0.9993630582963209</v>
+        <v>0.999893708632324</v>
       </c>
       <c r="Q26">
-        <v>0.9993630582963209</v>
+        <v>0.999893708632324</v>
       </c>
       <c r="R26">
-        <v>0.9997611501942759</v>
+        <v>0.9999601398068971</v>
       </c>
       <c r="S26">
-        <v>0.9997611501942759</v>
+        <v>0.9999601398068971</v>
       </c>
       <c r="T26">
-        <v>0.9999150774178905</v>
+        <v>0.9999858273901273</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="D27">
-        <v>0.9982234307003733</v>
+        <v>1.009720408641882</v>
       </c>
       <c r="E27">
-        <v>1.001465690901298</v>
+        <v>0.991980665190564</v>
       </c>
       <c r="F27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="G27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="H27">
-        <v>1.002664849546649</v>
+        <v>0.9854193936374034</v>
       </c>
       <c r="I27">
-        <v>1.002664849546649</v>
+        <v>0.9854193936374034</v>
       </c>
       <c r="J27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="K27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="L27">
-        <v>0.9993337755832449</v>
+        <v>1.003645159599657</v>
       </c>
       <c r="M27">
-        <v>1.000999312564947</v>
+        <v>0.9945322766185301</v>
       </c>
       <c r="N27">
-        <v>1.000999312564947</v>
+        <v>0.9945322766185301</v>
       </c>
       <c r="O27">
-        <v>1.001154772010397</v>
+        <v>0.9936817394758748</v>
       </c>
       <c r="P27">
-        <v>1.000444133571046</v>
+        <v>0.9975699042789056</v>
       </c>
       <c r="Q27">
-        <v>1.000444133571046</v>
+        <v>0.9975699042789056</v>
       </c>
       <c r="R27">
-        <v>1.000166544074096</v>
+        <v>0.9990887181090934</v>
       </c>
       <c r="S27">
-        <v>1.000166544074096</v>
+        <v>0.9990887181090934</v>
       </c>
       <c r="T27">
-        <v>1.000059216316343</v>
+        <v>0.9996759910448034</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="D28">
-        <v>1.002063056001905</v>
+        <v>1.002547786015201</v>
       </c>
       <c r="E28">
-        <v>0.9982979870266061</v>
+        <v>0.9978980777150384</v>
       </c>
       <c r="F28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="G28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="H28">
-        <v>0.9969054367781239</v>
+        <v>0.9961783231126807</v>
       </c>
       <c r="I28">
-        <v>0.9969054367781239</v>
+        <v>0.9961783231126807</v>
       </c>
       <c r="J28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="K28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="L28">
-        <v>1.000773635151705</v>
+        <v>1.000955425888141</v>
       </c>
       <c r="M28">
-        <v>0.9988395359649145</v>
+        <v>0.9985668745004108</v>
       </c>
       <c r="N28">
-        <v>0.9988395359649145</v>
+        <v>0.9985668745004108</v>
       </c>
       <c r="O28">
-        <v>0.9986590196521451</v>
+        <v>0.9983439422386201</v>
       </c>
       <c r="P28">
-        <v>0.9994842356938447</v>
+        <v>0.9993630582963209</v>
       </c>
       <c r="Q28">
-        <v>0.9994842356938447</v>
+        <v>0.9993630582963209</v>
       </c>
       <c r="R28">
-        <v>0.9998065855583098</v>
+        <v>0.9997611501942759</v>
       </c>
       <c r="S28">
-        <v>0.9998065855583098</v>
+        <v>0.9997611501942759</v>
       </c>
       <c r="T28">
-        <v>0.9999312308769585</v>
+        <v>0.9999150774178905</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="D29">
+        <v>0.9982234307003733</v>
+      </c>
+      <c r="E29">
+        <v>1.001465690901298</v>
+      </c>
+      <c r="F29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="G29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="H29">
+        <v>1.002664849546649</v>
+      </c>
+      <c r="I29">
+        <v>1.002664849546649</v>
+      </c>
+      <c r="J29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="K29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="L29">
+        <v>0.9993337755832449</v>
+      </c>
+      <c r="M29">
+        <v>1.000999312564947</v>
+      </c>
+      <c r="N29">
+        <v>1.000999312564947</v>
+      </c>
+      <c r="O29">
+        <v>1.001154772010397</v>
+      </c>
+      <c r="P29">
+        <v>1.000444133571046</v>
+      </c>
+      <c r="Q29">
+        <v>1.000444133571046</v>
+      </c>
+      <c r="R29">
+        <v>1.000166544074096</v>
+      </c>
+      <c r="S29">
+        <v>1.000166544074096</v>
+      </c>
+      <c r="T29">
+        <v>1.000059216316343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="D30">
+        <v>1.002063056001905</v>
+      </c>
+      <c r="E30">
+        <v>0.9982979870266061</v>
+      </c>
+      <c r="F30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="G30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="H30">
+        <v>0.9969054367781239</v>
+      </c>
+      <c r="I30">
+        <v>0.9969054367781239</v>
+      </c>
+      <c r="J30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="K30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="L30">
+        <v>1.000773635151705</v>
+      </c>
+      <c r="M30">
+        <v>0.9988395359649145</v>
+      </c>
+      <c r="N30">
+        <v>0.9988395359649145</v>
+      </c>
+      <c r="O30">
+        <v>0.9986590196521451</v>
+      </c>
+      <c r="P30">
+        <v>0.9994842356938447</v>
+      </c>
+      <c r="Q30">
+        <v>0.9994842356938447</v>
+      </c>
+      <c r="R30">
+        <v>0.9998065855583098</v>
+      </c>
+      <c r="S30">
+        <v>0.9998065855583098</v>
+      </c>
+      <c r="T30">
+        <v>0.9999312308769585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.002786573709439</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.007430888954413</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9938695251517311</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002786573709439</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.002786573709439</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9888536969460807</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9888536969460807</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.002786573709439</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.002786573709439</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.002786573709439</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.99582013532776</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.99582013532776</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9951699319357504</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9981422814549865</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9981422814549865</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9993033545185998</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9993033545185998</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.999752305363424</v>
       </c>
     </row>
